--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -8,25 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7CBB68-94E5-E64B-BB25-6CED8BC5B41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50E7E1-9425-E744-9A00-53C385EF9F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$123</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1:$G$50</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$51:$G$123</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$1:$G$50</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$51:$G$123</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">

--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50E7E1-9425-E744-9A00-53C385EF9F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DEC98B-88F6-2543-91BF-D8A7A861A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="1660" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="161">
   <si>
     <t>sample_id</t>
   </si>
   <si>
-    <t>river_code</t>
-  </si>
-  <si>
     <t>meas_ints</t>
   </si>
   <si>
@@ -74,9 +69,6 @@
     <t>FBS01</t>
   </si>
   <si>
-    <t>FBS</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -230,9 +222,6 @@
     <t>FER01</t>
   </si>
   <si>
-    <t>FER</t>
-  </si>
-  <si>
     <t>FER02</t>
   </si>
   <si>
@@ -461,18 +450,6 @@
     <t>FBS49</t>
   </si>
   <si>
-    <t>hyb_status</t>
-  </si>
-  <si>
-    <t>Admixed</t>
-  </si>
-  <si>
-    <t>Neosho</t>
-  </si>
-  <si>
-    <t>Northern</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -480,6 +457,66 @@
   </si>
   <si>
     <t>mass_dead</t>
+  </si>
+  <si>
+    <t>GRSPB31</t>
+  </si>
+  <si>
+    <t>GRSPB32</t>
+  </si>
+  <si>
+    <t>GRSPB33</t>
+  </si>
+  <si>
+    <t>GRSPB34</t>
+  </si>
+  <si>
+    <t>GRSPB35</t>
+  </si>
+  <si>
+    <t>GRSPB36</t>
+  </si>
+  <si>
+    <t>GRSPB37</t>
+  </si>
+  <si>
+    <t>GRSPB39</t>
+  </si>
+  <si>
+    <t>GRSPB41</t>
+  </si>
+  <si>
+    <t>GRSPB44</t>
+  </si>
+  <si>
+    <t>GRSPB46</t>
+  </si>
+  <si>
+    <t>GRSPB49</t>
+  </si>
+  <si>
+    <t>TBLR01</t>
+  </si>
+  <si>
+    <t>TBLR02</t>
+  </si>
+  <si>
+    <t>TBLR03</t>
+  </si>
+  <si>
+    <t>TBLR04</t>
+  </si>
+  <si>
+    <t>TBLR05</t>
+  </si>
+  <si>
+    <t>TBLR06</t>
+  </si>
+  <si>
+    <t>TBLR07</t>
+  </si>
+  <si>
+    <t>TBLR08</t>
   </si>
 </sst>
 </file>
@@ -489,7 +526,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +542,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -544,6 +596,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,11 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D9D8A-4BB1-B749-8FD6-F9946088D456}">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,59 +929,59 @@
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2">
         <v>224</v>
@@ -937,7 +993,7 @@
         <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -969,10 +1025,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2">
         <v>302</v>
@@ -984,7 +1040,7 @@
         <v>284</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2">
         <v>4</v>
@@ -1016,10 +1072,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2">
         <v>326</v>
@@ -1031,7 +1087,7 @@
         <v>387</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2">
         <v>4</v>
@@ -1063,10 +1119,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2">
         <v>234</v>
@@ -1078,7 +1134,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -1110,10 +1166,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2">
         <v>220</v>
@@ -1125,7 +1181,7 @@
         <v>107</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -1157,10 +1213,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2">
         <v>412</v>
@@ -1172,7 +1228,7 @@
         <v>822</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
         <v>7</v>
@@ -1204,10 +1260,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2">
         <v>229</v>
@@ -1219,7 +1275,7 @@
         <v>110</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2">
         <v>2</v>
@@ -1251,10 +1307,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2">
         <v>241</v>
@@ -1266,7 +1322,7 @@
         <v>153</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2">
         <v>2</v>
@@ -1298,10 +1354,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2">
         <v>206</v>
@@ -1313,7 +1369,7 @@
         <v>110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -1345,10 +1401,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2">
         <v>204</v>
@@ -1360,7 +1416,7 @@
         <v>109</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>
@@ -1392,10 +1448,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2">
         <v>225</v>
@@ -1407,7 +1463,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -1439,10 +1495,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2">
         <v>215</v>
@@ -1454,7 +1510,7 @@
         <v>93</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1486,10 +1542,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2">
         <v>200</v>
@@ -1501,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1533,10 +1589,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2">
         <v>294</v>
@@ -1548,7 +1604,7 @@
         <v>262</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <v>4</v>
@@ -1580,10 +1636,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2">
         <v>221</v>
@@ -1595,7 +1651,7 @@
         <v>125</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -1627,10 +1683,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2">
         <v>298</v>
@@ -1642,7 +1698,7 @@
         <v>275</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2">
         <v>3</v>
@@ -1674,10 +1730,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2">
         <v>220</v>
@@ -1689,7 +1745,7 @@
         <v>102</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
@@ -1721,10 +1777,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2">
         <v>274</v>
@@ -1736,7 +1792,7 @@
         <v>225</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -1768,10 +1824,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2">
         <v>220</v>
@@ -1783,7 +1839,7 @@
         <v>125</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
@@ -1815,10 +1871,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2">
         <v>227</v>
@@ -1830,7 +1886,7 @@
         <v>106</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2">
         <v>2</v>
@@ -1862,10 +1918,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2">
         <v>205</v>
@@ -1877,7 +1933,7 @@
         <v>95</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2">
         <v>2</v>
@@ -1909,10 +1965,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2">
         <v>261</v>
@@ -1924,7 +1980,7 @@
         <v>191</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1956,10 +2012,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2">
         <v>284</v>
@@ -1971,7 +2027,7 @@
         <v>265</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2">
         <v>3</v>
@@ -2003,10 +2059,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2">
         <v>320</v>
@@ -2018,7 +2074,7 @@
         <v>345</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -2050,10 +2106,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2">
         <v>389</v>
@@ -2065,7 +2121,7 @@
         <v>673</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -2097,10 +2153,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C27" s="2">
         <v>320</v>
@@ -2112,7 +2168,7 @@
         <v>300</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -2144,10 +2200,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C28" s="2">
         <v>269</v>
@@ -2159,7 +2215,7 @@
         <v>235</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2">
         <v>3</v>
@@ -2191,10 +2247,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C29" s="2">
         <v>325</v>
@@ -2206,7 +2262,7 @@
         <v>404</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2">
         <v>4</v>
@@ -2238,10 +2294,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C30" s="2">
         <v>314</v>
@@ -2253,7 +2309,7 @@
         <v>372</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2">
         <v>4</v>
@@ -2285,10 +2341,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2">
         <v>342</v>
@@ -2300,7 +2356,7 @@
         <v>456</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -2332,10 +2388,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C32" s="2">
         <v>314</v>
@@ -2347,7 +2403,7 @@
         <v>324</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -2379,10 +2435,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2">
         <v>374</v>
@@ -2394,7 +2450,7 @@
         <v>597</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2">
         <v>6</v>
@@ -2426,10 +2482,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C34" s="2">
         <v>275</v>
@@ -2441,7 +2497,7 @@
         <v>240</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
         <v>3</v>
@@ -2473,10 +2529,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2">
         <v>301</v>
@@ -2488,7 +2544,7 @@
         <v>323</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
@@ -2520,10 +2576,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2">
         <v>324</v>
@@ -2535,7 +2591,7 @@
         <v>426</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2">
         <v>4</v>
@@ -2567,10 +2623,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2">
         <v>306</v>
@@ -2582,7 +2638,7 @@
         <v>347</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="2">
         <v>4</v>
@@ -2614,10 +2670,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C38" s="2">
         <v>276</v>
@@ -2629,7 +2685,7 @@
         <v>262</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="2">
         <v>3</v>
@@ -2661,10 +2717,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2">
         <v>276</v>
@@ -2676,7 +2732,7 @@
         <v>248</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
@@ -2708,10 +2764,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C40" s="2">
         <v>283</v>
@@ -2723,7 +2779,7 @@
         <v>270</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2">
         <v>3</v>
@@ -2755,10 +2811,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C41" s="2">
         <v>299</v>
@@ -2770,7 +2826,7 @@
         <v>252</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
@@ -2802,10 +2858,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C42" s="2">
         <v>315</v>
@@ -2817,7 +2873,7 @@
         <v>404</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
@@ -2849,10 +2905,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C43" s="2">
         <v>300</v>
@@ -2864,7 +2920,7 @@
         <v>292</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2">
         <v>3</v>
@@ -2896,10 +2952,10 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C44" s="2">
         <v>305</v>
@@ -2911,7 +2967,7 @@
         <v>341</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2">
         <v>3</v>
@@ -2943,10 +2999,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2">
         <v>419</v>
@@ -2958,7 +3014,7 @@
         <v>846</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2">
         <v>6</v>
@@ -2990,10 +3046,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2">
         <v>405</v>
@@ -3005,7 +3061,7 @@
         <v>872</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2">
         <v>7</v>
@@ -3037,10 +3093,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C47" s="2">
         <v>345</v>
@@ -3052,7 +3108,7 @@
         <v>483</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2">
         <v>4</v>
@@ -3084,27 +3140,35 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C48" s="2">
         <v>303</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48" s="2">
         <v>422</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="K48" s="2">
         <v>263</v>
       </c>
@@ -3123,27 +3187,35 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C49" s="2">
         <v>315</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" s="2">
         <v>416</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="K49" s="2">
         <v>270</v>
       </c>
@@ -3162,27 +3234,35 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C50" s="2">
         <v>288</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2">
         <v>383</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="K50" s="2">
         <v>252</v>
       </c>
@@ -3201,10 +3281,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2">
         <v>305</v>
@@ -3216,7 +3296,7 @@
         <v>295</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G51" s="2">
         <v>3</v>
@@ -3248,10 +3328,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2">
         <v>220</v>
@@ -3263,7 +3343,7 @@
         <v>102</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -3295,10 +3375,10 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2">
         <v>238</v>
@@ -3310,7 +3390,7 @@
         <v>133</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -3342,10 +3422,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C54" s="2">
         <v>252</v>
@@ -3357,7 +3437,7 @@
         <v>185</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
@@ -3389,10 +3469,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C55" s="2">
         <v>253</v>
@@ -3404,7 +3484,7 @@
         <v>211</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
@@ -3436,10 +3516,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C56" s="2">
         <v>274</v>
@@ -3451,7 +3531,7 @@
         <v>192</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
@@ -3483,10 +3563,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C57" s="2">
         <v>221</v>
@@ -3498,7 +3578,7 @@
         <v>110</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
@@ -3530,10 +3610,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2">
         <v>204</v>
@@ -3545,7 +3625,7 @@
         <v>92</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -3577,10 +3657,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C59" s="2">
         <v>270</v>
@@ -3592,7 +3672,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -3624,10 +3704,10 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C60" s="2">
         <v>267</v>
@@ -3639,7 +3719,7 @@
         <v>196</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" s="2">
         <v>2</v>
@@ -3671,10 +3751,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1">
         <v>318</v>
@@ -3686,7 +3766,7 @@
         <v>329</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -3718,10 +3798,10 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2">
         <v>261</v>
@@ -3733,7 +3813,7 @@
         <v>210</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
@@ -3765,10 +3845,10 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2">
         <v>254</v>
@@ -3780,7 +3860,7 @@
         <v>148</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G63" s="2">
         <v>2</v>
@@ -3812,10 +3892,10 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1">
         <v>287</v>
@@ -3827,7 +3907,7 @@
         <v>254</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
@@ -3859,10 +3939,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C65" s="2">
         <v>279</v>
@@ -3874,7 +3954,7 @@
         <v>210</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -3906,10 +3986,10 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2">
         <v>231</v>
@@ -3921,7 +4001,7 @@
         <v>131</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2">
         <v>2</v>
@@ -3953,10 +4033,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C67" s="2">
         <v>222</v>
@@ -3968,7 +4048,7 @@
         <v>115</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G67" s="2">
         <v>2</v>
@@ -4000,10 +4080,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C68" s="2">
         <v>201</v>
@@ -4015,7 +4095,7 @@
         <v>110</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2">
         <v>2</v>
@@ -4047,10 +4127,10 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C69" s="2">
         <v>202</v>
@@ -4062,7 +4142,7 @@
         <v>120</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G69" s="2">
         <v>3</v>
@@ -4094,10 +4174,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2">
         <v>330</v>
@@ -4109,7 +4189,7 @@
         <v>407</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2">
         <v>4</v>
@@ -4141,10 +4221,10 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C71" s="1">
         <v>209</v>
@@ -4156,7 +4236,7 @@
         <v>100</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -4188,10 +4268,10 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2">
         <v>232</v>
@@ -4203,7 +4283,7 @@
         <v>157</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72" s="2">
         <v>2</v>
@@ -4235,10 +4315,10 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C73" s="2">
         <v>257</v>
@@ -4250,7 +4330,7 @@
         <v>202</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G73" s="2">
         <v>3</v>
@@ -4282,10 +4362,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2">
         <v>261</v>
@@ -4297,7 +4377,7 @@
         <v>225</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2">
         <v>2</v>
@@ -4329,10 +4409,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C75" s="2">
         <v>280</v>
@@ -4344,7 +4424,7 @@
         <v>260</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2">
         <v>3</v>
@@ -4376,10 +4456,10 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2">
         <v>259</v>
@@ -4391,7 +4471,7 @@
         <v>170</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -4423,10 +4503,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2">
         <v>236</v>
@@ -4438,7 +4518,7 @@
         <v>158</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G77" s="2">
         <v>2</v>
@@ -4470,10 +4550,10 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C78" s="2">
         <v>389</v>
@@ -4485,7 +4565,7 @@
         <v>680</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G78" s="2">
         <v>7</v>
@@ -4517,10 +4597,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C79" s="2">
         <v>215</v>
@@ -4532,7 +4612,7 @@
         <v>104</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2">
         <v>2</v>
@@ -4564,10 +4644,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2">
         <v>407</v>
@@ -4579,7 +4659,7 @@
         <v>797</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G80" s="2">
         <v>6</v>
@@ -4611,10 +4691,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2">
         <v>235</v>
@@ -4626,7 +4706,7 @@
         <v>144</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G81" s="2">
         <v>2</v>
@@ -4658,10 +4738,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2">
         <v>235</v>
@@ -4673,7 +4753,7 @@
         <v>146</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2">
         <v>2</v>
@@ -4705,10 +4785,10 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C83" s="2">
         <v>209</v>
@@ -4720,7 +4800,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2">
         <v>2</v>
@@ -4752,10 +4832,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C84" s="2">
         <v>242</v>
@@ -4767,7 +4847,7 @@
         <v>157</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2">
         <v>2</v>
@@ -4799,10 +4879,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C85" s="2">
         <v>238</v>
@@ -4814,7 +4894,7 @@
         <v>143</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
@@ -4846,10 +4926,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C86" s="2">
         <v>234</v>
@@ -4861,7 +4941,7 @@
         <v>148</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2">
         <v>2</v>
@@ -4893,10 +4973,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2">
         <v>240</v>
@@ -4908,7 +4988,7 @@
         <v>148</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2">
         <v>2</v>
@@ -4940,10 +5020,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C88" s="2">
         <v>238</v>
@@ -4955,7 +5035,7 @@
         <v>136</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G88" s="2">
         <v>2</v>
@@ -4987,10 +5067,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C89" s="2">
         <v>247</v>
@@ -5002,7 +5082,7 @@
         <v>164</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2">
         <v>2</v>
@@ -5034,10 +5114,10 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C90" s="2">
         <v>251</v>
@@ -5049,7 +5129,7 @@
         <v>235</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2">
         <v>2</v>
@@ -5081,10 +5161,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C91" s="2">
         <v>250</v>
@@ -5096,7 +5176,7 @@
         <v>185</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G91" s="2">
         <v>3</v>
@@ -5128,10 +5208,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2">
         <v>289</v>
@@ -5143,7 +5223,7 @@
         <v>283</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G92" s="2">
         <v>3</v>
@@ -5175,10 +5255,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2">
         <v>250</v>
@@ -5190,7 +5270,7 @@
         <v>186</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G93" s="2">
         <v>2</v>
@@ -5222,10 +5302,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C94" s="2">
         <v>252</v>
@@ -5237,7 +5317,7 @@
         <v>186</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G94" s="2">
         <v>2</v>
@@ -5269,10 +5349,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2">
         <v>254</v>
@@ -5284,7 +5364,7 @@
         <v>146</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2">
         <v>3</v>
@@ -5316,10 +5396,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2">
         <v>213</v>
@@ -5331,7 +5411,7 @@
         <v>98</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2">
         <v>2</v>
@@ -5363,10 +5443,10 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2">
         <v>245</v>
@@ -5378,7 +5458,7 @@
         <v>189</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G97" s="2">
         <v>2</v>
@@ -5410,10 +5490,10 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2">
         <v>300</v>
@@ -5425,7 +5505,7 @@
         <v>329</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2">
         <v>3</v>
@@ -5457,10 +5537,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C99" s="2">
         <v>279</v>
@@ -5472,7 +5552,7 @@
         <v>295</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G99" s="2">
         <v>3</v>
@@ -5504,10 +5584,10 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2">
         <v>277</v>
@@ -5519,7 +5599,7 @@
         <v>220</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2">
         <v>4</v>
@@ -5551,10 +5631,10 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2">
         <v>275</v>
@@ -5566,7 +5646,7 @@
         <v>197</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2">
         <v>3</v>
@@ -5598,10 +5678,10 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2">
         <v>311</v>
@@ -5613,7 +5693,7 @@
         <v>349</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G102" s="2">
         <v>3</v>
@@ -5645,10 +5725,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2">
         <v>292</v>
@@ -5660,7 +5740,7 @@
         <v>306</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G103" s="2">
         <v>3</v>
@@ -5692,10 +5772,10 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C104" s="2">
         <v>281</v>
@@ -5707,7 +5787,7 @@
         <v>246</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G104" s="2">
         <v>2</v>
@@ -5739,10 +5819,10 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C105" s="2">
         <v>285</v>
@@ -5754,7 +5834,7 @@
         <v>271</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2">
         <v>2</v>
@@ -5786,10 +5866,10 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2">
         <v>310</v>
@@ -5801,7 +5881,7 @@
         <v>323</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G106" s="2">
         <v>3</v>
@@ -5833,10 +5913,10 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2">
         <v>379</v>
@@ -5848,7 +5928,7 @@
         <v>580</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G107" s="2">
         <v>4</v>
@@ -5880,10 +5960,10 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2">
         <v>391</v>
@@ -5895,7 +5975,7 @@
         <v>583</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G108" s="2">
         <v>7</v>
@@ -5927,10 +6007,10 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2">
         <v>380</v>
@@ -5942,7 +6022,7 @@
         <v>605</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2">
         <v>3</v>
@@ -5974,10 +6054,10 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2">
         <v>331</v>
@@ -5989,7 +6069,7 @@
         <v>409</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G110" s="2">
         <v>3</v>
@@ -6021,10 +6101,10 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C111" s="2">
         <v>340</v>
@@ -6036,7 +6116,7 @@
         <v>416</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2">
         <v>3</v>
@@ -6068,10 +6148,10 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2">
         <v>307</v>
@@ -6083,7 +6163,7 @@
         <v>329</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G112" s="2">
         <v>4</v>
@@ -6115,10 +6195,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C113" s="2">
         <v>360</v>
@@ -6130,7 +6210,7 @@
         <v>564</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G113" s="2">
         <v>8</v>
@@ -6162,10 +6242,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2">
         <v>282</v>
@@ -6177,7 +6257,7 @@
         <v>261</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2">
         <v>3</v>
@@ -6209,10 +6289,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C115" s="2">
         <v>262</v>
@@ -6224,7 +6304,7 @@
         <v>225</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G115" s="2">
         <v>2</v>
@@ -6256,10 +6336,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2">
         <v>252</v>
@@ -6271,7 +6351,7 @@
         <v>195</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2">
         <v>3</v>
@@ -6303,10 +6383,10 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2">
         <v>308</v>
@@ -6318,7 +6398,7 @@
         <v>352</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2">
         <v>3</v>
@@ -6350,10 +6430,10 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2">
         <v>398</v>
@@ -6365,7 +6445,7 @@
         <v>684</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G118" s="2">
         <v>6</v>
@@ -6397,10 +6477,10 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C119" s="2">
         <v>276</v>
@@ -6412,7 +6492,7 @@
         <v>243</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G119" s="2">
         <v>2</v>
@@ -6444,13 +6524,13 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="2">
         <v>224</v>
@@ -6459,7 +6539,7 @@
         <v>161</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G120" s="2">
         <v>2</v>
@@ -6487,6 +6567,946 @@
       </c>
       <c r="O120" s="4">
         <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O124" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O138" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O139" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -6496,2045 +7516,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778CB90-77A3-0246-B2BD-124FEEDC97D1}">
-  <dimension ref="A1:E49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>302</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>234</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>412</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>229</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>206</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>215</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>221</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>389</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>269</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>325</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>342</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>275</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
-        <v>301</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>324</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>306</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <v>276</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2">
-        <v>299</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>300</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>224</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>220</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2">
-        <v>241</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>204</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2">
-        <v>225</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2">
-        <v>294</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2">
-        <v>298</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2">
-        <v>274</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="2">
-        <v>220</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2">
-        <v>227</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="2">
-        <v>205</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>320</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2">
-        <v>314</v>
-      </c>
-      <c r="D32" s="2">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="2">
-        <v>314</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="2">
-        <v>374</v>
-      </c>
-      <c r="D34" s="2">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2">
-        <v>283</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="2">
-        <v>315</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2">
-        <v>305</v>
-      </c>
-      <c r="D37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <v>419</v>
-      </c>
-      <c r="D38" s="2">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2">
-        <v>405</v>
-      </c>
-      <c r="D39" s="2">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2">
-        <v>345</v>
-      </c>
-      <c r="D40" s="2">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2">
-        <v>326</v>
-      </c>
-      <c r="D41" s="2">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="2">
-        <v>200</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="2">
-        <v>220</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2">
-        <v>261</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2">
-        <v>284</v>
-      </c>
-      <c r="D45" s="2">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2">
-        <v>320</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2">
-        <v>276</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E125">
-    <sortCondition ref="E1:E125"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0ACB62-0E40-6B4E-BE35-51F06A947D6E}">
-  <dimension ref="A1:E70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2">
-        <v>305</v>
-      </c>
-      <c r="D1" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2">
-        <v>252</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2">
-        <v>274</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2">
-        <v>221</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2">
-        <v>204</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2">
-        <v>270</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1">
-        <v>318</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="2">
-        <v>279</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="2">
-        <v>231</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2">
-        <v>330</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="2">
-        <v>232</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2">
-        <v>257</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="2">
-        <v>261</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2">
-        <v>215</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2">
-        <v>209</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2">
-        <v>238</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2">
-        <v>234</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="2">
-        <v>240</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="2">
-        <v>250</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="2">
-        <v>252</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2">
-        <v>213</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2">
-        <v>300</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="2">
-        <v>279</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="2">
-        <v>277</v>
-      </c>
-      <c r="D24" s="2">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2">
-        <v>281</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2">
-        <v>310</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2">
-        <v>379</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="2">
-        <v>340</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2">
-        <v>360</v>
-      </c>
-      <c r="D29" s="2">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2">
-        <v>282</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2">
-        <v>308</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="2">
-        <v>220</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2">
-        <v>238</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="2">
-        <v>253</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="2">
-        <v>261</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="1">
-        <v>287</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="2">
-        <v>222</v>
-      </c>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="2">
-        <v>202</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="2">
-        <v>280</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3</v>
-      </c>
-      <c r="E40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="2">
-        <v>389</v>
-      </c>
-      <c r="D41" s="2">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="2">
-        <v>407</v>
-      </c>
-      <c r="D42" s="2">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="2">
-        <v>235</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="2">
-        <v>235</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="2">
-        <v>242</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="2">
-        <v>238</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="2">
-        <v>251</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="2">
-        <v>289</v>
-      </c>
-      <c r="D48" s="2">
-        <v>3</v>
-      </c>
-      <c r="E48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="2">
-        <v>254</v>
-      </c>
-      <c r="D49" s="2">
-        <v>3</v>
-      </c>
-      <c r="E49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="2">
-        <v>245</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2">
-        <v>311</v>
-      </c>
-      <c r="D51" s="2">
-        <v>3</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="2">
-        <v>292</v>
-      </c>
-      <c r="D52" s="2">
-        <v>3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="2">
-        <v>285</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="2">
-        <v>380</v>
-      </c>
-      <c r="D54" s="2">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="2">
-        <v>307</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="2">
-        <v>262</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="2">
-        <v>252</v>
-      </c>
-      <c r="D57" s="2">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="2">
-        <v>276</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="2">
-        <v>267</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="2">
-        <v>254</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="2">
-        <v>201</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="1">
-        <v>209</v>
-      </c>
-      <c r="D62" s="1">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="2">
-        <v>259</v>
-      </c>
-      <c r="D63" s="2">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="2">
-        <v>236</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="2">
-        <v>247</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="2">
-        <v>250</v>
-      </c>
-      <c r="D66" s="2">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="2">
-        <v>275</v>
-      </c>
-      <c r="D67" s="2">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="2">
-        <v>391</v>
-      </c>
-      <c r="D68" s="2">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="2">
-        <v>331</v>
-      </c>
-      <c r="D69" s="2">
-        <v>3</v>
-      </c>
-      <c r="E69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="2">
-        <v>398</v>
-      </c>
-      <c r="D70" s="2">
-        <v>6</v>
-      </c>
-      <c r="E70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E70">
-    <sortCondition ref="E1:E70"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DEC98B-88F6-2543-91BF-D8A7A861A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D512032-7027-8D4F-ACB3-EB580F007464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="0" yWindow="5700" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="162">
   <si>
     <t>sample_id</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>TBLR08</t>
+  </si>
+  <si>
+    <t>structure_number</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +564,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -601,6 +612,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,89 +927,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D9D8A-4BB1-B749-8FD6-F9946088D456}">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="str">
+        <f>CONCATENATE(LEFT(A2,3),"_",RIGHT(A2,2))</f>
+        <v>FBS_01</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>224</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>206</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>131</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
       <c r="H2" s="2">
         <v>3</v>
       </c>
@@ -1008,42 +1025,46 @@
         <v>3</v>
       </c>
       <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
         <v>176</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>51</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>70.400000000000006</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>13.5</v>
       </c>
-      <c r="O2" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">CONCATENATE(LEFT(A3,3),"_",RIGHT(A3,2))</f>
+        <v>FBS_02</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>302</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>290</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>284</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="2">
         <v>4</v>
@@ -1055,42 +1076,46 @@
         <v>4</v>
       </c>
       <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2">
         <v>256</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>64</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>85.1</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>11.7</v>
       </c>
-      <c r="O3" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_03</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>326</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>331</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>387</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -1102,43 +1127,47 @@
         <v>4</v>
       </c>
       <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
         <v>272</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>71.5</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>90.5</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>11.6</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_04</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>234</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>224</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>103</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
       <c r="H5" s="2">
         <v>2</v>
       </c>
@@ -1149,42 +1178,46 @@
         <v>2</v>
       </c>
       <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
         <v>183</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>44</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>63.9</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>11.5</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_05</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>220</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>217</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>107</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -1196,90 +1229,98 @@
         <v>2</v>
       </c>
       <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
         <v>184</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>51</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>62.1</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_06</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>412</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>395</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>822</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>8</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7</v>
       </c>
       <c r="J7" s="2">
         <v>7</v>
       </c>
       <c r="K7" s="2">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2">
         <v>335</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>92.9</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>111.9</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>15.9</v>
       </c>
-      <c r="O7" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_07</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>229</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>225</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>110</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
       <c r="H8" s="2">
         <v>2</v>
       </c>
@@ -1290,43 +1331,47 @@
         <v>2</v>
       </c>
       <c r="K8" s="2">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
         <v>190</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>49.2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>67.099999999999994</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>12.1</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_08</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>241</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>234</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>153</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
       <c r="H9" s="2">
         <v>2</v>
       </c>
@@ -1337,42 +1382,46 @@
         <v>2</v>
       </c>
       <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
         <v>204</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>51.1</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>12.5</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_09</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>206</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>200</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>110</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
@@ -1384,43 +1433,47 @@
         <v>2</v>
       </c>
       <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
         <v>170</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>45.7</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>58.5</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>11.8</v>
       </c>
-      <c r="O10" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_10</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>204</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>203</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>109</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
       <c r="H11" s="2">
         <v>2</v>
       </c>
@@ -1431,90 +1484,98 @@
         <v>2</v>
       </c>
       <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
         <v>171</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>47.7</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>58.3</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>10.4</v>
       </c>
-      <c r="O11" s="4">
+      <c r="P11" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_11</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>225</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>210</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>109</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
       <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="I12" s="2">
-        <v>2</v>
-      </c>
       <c r="J12" s="2">
         <v>2</v>
       </c>
       <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
         <v>185</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>42.8</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>60.4</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O12" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>215</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>210</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>93</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
       <c r="H13" s="2">
         <v>2</v>
       </c>
@@ -1525,42 +1586,46 @@
         <v>2</v>
       </c>
       <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2">
         <v>179</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>44.1</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>58.1</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>13.8</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_13</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>200</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>185</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>53</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1572,42 +1637,46 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
         <v>156</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>40.5</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>56.6</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="O14" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_14</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>294</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>284</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>262</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
       </c>
       <c r="H15" s="2">
         <v>4</v>
@@ -1619,42 +1688,46 @@
         <v>4</v>
       </c>
       <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2">
         <v>245</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>62.7</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>80.2</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>12.5</v>
       </c>
-      <c r="O15" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_15</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>221</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>217</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>125</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2</v>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -1666,42 +1739,46 @@
         <v>2</v>
       </c>
       <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="2">
         <v>182</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>51.3</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>60.9</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O16" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_16</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>298</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>294</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>275</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3</v>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
@@ -1713,43 +1790,47 @@
         <v>3</v>
       </c>
       <c r="K17" s="2">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2">
         <v>253</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>66.7</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>85.4</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>12.9</v>
       </c>
-      <c r="O17" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_17</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>220</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>215</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>102</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="2">
-        <v>2</v>
-      </c>
       <c r="H18" s="2">
         <v>2</v>
       </c>
@@ -1760,43 +1841,47 @@
         <v>2</v>
       </c>
       <c r="K18" s="2">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2">
         <v>189</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>44.5</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>67</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>12.6</v>
       </c>
-      <c r="O18" s="4">
+      <c r="P18" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_18</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>274</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>269</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>225</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
       <c r="H19" s="2">
         <v>3</v>
       </c>
@@ -1807,43 +1892,47 @@
         <v>3</v>
       </c>
       <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2">
         <v>227</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>59.5</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>77.7</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>13.2</v>
       </c>
-      <c r="O19" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_19</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>220</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>222</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>125</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="2">
-        <v>2</v>
-      </c>
       <c r="H20" s="2">
         <v>2</v>
       </c>
@@ -1854,43 +1943,47 @@
         <v>2</v>
       </c>
       <c r="K20" s="2">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2">
         <v>190</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>49</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>61.5</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>9.1</v>
       </c>
-      <c r="O20" s="4">
+      <c r="P20" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_20</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>227</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>220</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>106</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
       <c r="H21" s="2">
         <v>2</v>
       </c>
@@ -1901,43 +1994,47 @@
         <v>2</v>
       </c>
       <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
         <v>183</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>47.6</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>64.8</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>10.6</v>
       </c>
-      <c r="O21" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_21</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>205</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>202</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>95</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
       <c r="H22" s="2">
         <v>2</v>
       </c>
@@ -1948,42 +2045,46 @@
         <v>2</v>
       </c>
       <c r="K22" s="2">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
         <v>175</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>44.1</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>56.2</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>11.8</v>
       </c>
-      <c r="O22" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_22</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>261</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>256.2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>191</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G23" s="2">
-        <v>4</v>
       </c>
       <c r="H23" s="2">
         <v>4</v>
@@ -1995,183 +2096,199 @@
         <v>4</v>
       </c>
       <c r="K23" s="2">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2">
         <v>220</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>51.5</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>75.599999999999994</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>10.4</v>
       </c>
-      <c r="O23" s="4">
+      <c r="P23" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_23</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>284</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>278</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>265</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
       <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="2">
-        <v>3</v>
-      </c>
       <c r="J24" s="2">
         <v>3</v>
       </c>
       <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
         <v>236</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>63.5</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>76.900000000000006</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>15.6</v>
       </c>
-      <c r="O24" s="4">
+      <c r="P24" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_24</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>320</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>309</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>345</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="2">
         <v>2</v>
       </c>
       <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
         <v>265</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>72</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>87.5</v>
       </c>
-      <c r="N25" s="2">
-        <v>14</v>
-      </c>
-      <c r="O25" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="2">
+        <v>14</v>
+      </c>
+      <c r="P25" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_25</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>389</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>371</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>673</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>6</v>
       </c>
       <c r="I26" s="2">
         <v>6</v>
       </c>
       <c r="J26" s="2">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2">
         <v>5</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>315</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>89.2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>120.3</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>16.8</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_26</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>320</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>305</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>300</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4</v>
       </c>
       <c r="H27" s="2">
         <v>4</v>
@@ -2183,43 +2300,47 @@
         <v>4</v>
       </c>
       <c r="K27" s="2">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2">
         <v>262</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <v>63.6</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>80.099999999999994</v>
       </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
         <v>13.4</v>
       </c>
-      <c r="O27" s="4">
+      <c r="P27" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_27</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>269</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>256</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>235</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
       <c r="H28" s="2">
         <v>3</v>
       </c>
@@ -2230,89 +2351,97 @@
         <v>3</v>
       </c>
       <c r="K28" s="2">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
         <v>220</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <v>53.7</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>73.2</v>
       </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
         <v>13.7</v>
       </c>
-      <c r="O28" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_28</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>325</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>314</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>404</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4</v>
       </c>
       <c r="H29" s="2">
         <v>4</v>
       </c>
       <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
         <v>5</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>4</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>272</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <v>75.7</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <v>93.6</v>
       </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
         <v>12.5</v>
       </c>
-      <c r="O29" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_29</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>314</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>305</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>372</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4</v>
       </c>
       <c r="H30" s="2">
         <v>4</v>
@@ -2324,42 +2453,46 @@
         <v>4</v>
       </c>
       <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
         <v>260</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <v>71.3</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>91.3</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O30" s="2">
         <v>11.4</v>
       </c>
-      <c r="O30" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_30</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>342</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>336</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>456</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2">
-        <v>4</v>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="2">
         <v>4</v>
@@ -2371,42 +2504,46 @@
         <v>4</v>
       </c>
       <c r="K31" s="2">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2">
         <v>288</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <v>79</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>98.5</v>
       </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
         <v>12.8</v>
       </c>
-      <c r="O31" s="4">
+      <c r="P31" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_31</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>314</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>307</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>324</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4</v>
       </c>
       <c r="H32" s="2">
         <v>4</v>
@@ -2418,42 +2555,46 @@
         <v>4</v>
       </c>
       <c r="K32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2">
         <v>265</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>80.2</v>
       </c>
-      <c r="N32" s="2">
-        <v>14</v>
-      </c>
-      <c r="O32" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="2">
+        <v>14</v>
+      </c>
+      <c r="P32" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_32</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>374</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>365</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>597</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G33" s="2">
-        <v>6</v>
       </c>
       <c r="H33" s="2">
         <v>6</v>
@@ -2465,43 +2606,47 @@
         <v>6</v>
       </c>
       <c r="K33" s="2">
+        <v>6</v>
+      </c>
+      <c r="L33" s="2">
         <v>314</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>87.1</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>104</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>17.899999999999999</v>
       </c>
-      <c r="O33" s="4">
+      <c r="P33" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_33</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>275</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>261</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>240</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="2">
-        <v>3</v>
-      </c>
       <c r="H34" s="2">
         <v>3</v>
       </c>
@@ -2512,43 +2657,47 @@
         <v>3</v>
       </c>
       <c r="K34" s="2">
+        <v>3</v>
+      </c>
+      <c r="L34" s="2">
         <v>232</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>59.4</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>76.599999999999994</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>14.5</v>
       </c>
-      <c r="O34" s="4">
+      <c r="P34" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_34</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>301</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>290</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>323</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="2">
-        <v>3</v>
-      </c>
       <c r="H35" s="2">
         <v>3</v>
       </c>
@@ -2559,42 +2708,46 @@
         <v>3</v>
       </c>
       <c r="K35" s="2">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2">
         <v>253</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>70.099999999999994</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>83.7</v>
       </c>
-      <c r="N35" s="2">
+      <c r="O35" s="2">
         <v>11.5</v>
       </c>
-      <c r="O35" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_35</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>324</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>317</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>426</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G36" s="2">
-        <v>4</v>
       </c>
       <c r="H36" s="2">
         <v>4</v>
@@ -2606,42 +2759,46 @@
         <v>4</v>
       </c>
       <c r="K36" s="2">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2">
         <v>275</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>72.900000000000006</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <v>86.8</v>
       </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
         <v>16</v>
       </c>
-      <c r="O36" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_36</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>306</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>295</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>347</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="2">
-        <v>4</v>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H37" s="2">
         <v>4</v>
@@ -2653,42 +2810,46 @@
         <v>4</v>
       </c>
       <c r="K37" s="2">
+        <v>4</v>
+      </c>
+      <c r="L37" s="2">
         <v>257</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>75.599999999999994</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>86.1</v>
       </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
         <v>15.2</v>
       </c>
-      <c r="O37" s="4">
+      <c r="P37" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_37</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C38" s="2">
-        <v>276</v>
       </c>
       <c r="D38" s="2">
         <v>276</v>
       </c>
       <c r="E38" s="2">
+        <v>276</v>
+      </c>
+      <c r="F38" s="2">
         <v>262</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3</v>
+      <c r="G38" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H38" s="2">
         <v>3</v>
@@ -2700,42 +2861,46 @@
         <v>3</v>
       </c>
       <c r="K38" s="2">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
         <v>238</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>68.5</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>83.4</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>12.9</v>
       </c>
-      <c r="O38" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_38</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>276</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>270</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>248</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2</v>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -2747,43 +2912,47 @@
         <v>2</v>
       </c>
       <c r="K39" s="2">
+        <v>2</v>
+      </c>
+      <c r="L39" s="2">
         <v>234</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <v>62.5</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <v>77.5</v>
       </c>
-      <c r="N39" s="2">
+      <c r="O39" s="2">
         <v>13.8</v>
       </c>
-      <c r="O39" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_39</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>283</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>279</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>270</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="2">
-        <v>3</v>
-      </c>
       <c r="H40" s="2">
         <v>3</v>
       </c>
@@ -2794,43 +2963,47 @@
         <v>3</v>
       </c>
       <c r="K40" s="2">
+        <v>3</v>
+      </c>
+      <c r="L40" s="2">
         <v>242</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <v>64.900000000000006</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <v>79.5</v>
       </c>
-      <c r="N40" s="2">
+      <c r="O40" s="2">
         <v>15.5</v>
       </c>
-      <c r="O40" s="4">
+      <c r="P40" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">FBS_0 </v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>299</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>294</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>252</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="2">
-        <v>3</v>
-      </c>
       <c r="H41" s="2">
         <v>3</v>
       </c>
@@ -2841,42 +3014,46 @@
         <v>3</v>
       </c>
       <c r="K41" s="2">
+        <v>3</v>
+      </c>
+      <c r="L41" s="2">
         <v>251</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <v>61</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>87.8</v>
       </c>
-      <c r="N41" s="2">
+      <c r="O41" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="O41" s="4">
+      <c r="P41" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_41</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>315</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>308</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>404</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="2">
-        <v>3</v>
+      <c r="G42" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H42" s="2">
         <v>3</v>
@@ -2888,43 +3065,47 @@
         <v>3</v>
       </c>
       <c r="K42" s="2">
+        <v>3</v>
+      </c>
+      <c r="L42" s="2">
         <v>268</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>75.2</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>89.8</v>
       </c>
-      <c r="N42" s="2">
+      <c r="O42" s="2">
         <v>13.6</v>
       </c>
-      <c r="O42" s="4">
+      <c r="P42" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_42</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>300</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>295</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>292</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="2">
-        <v>3</v>
-      </c>
       <c r="H43" s="2">
         <v>3</v>
       </c>
@@ -2935,42 +3116,46 @@
         <v>3</v>
       </c>
       <c r="K43" s="2">
+        <v>3</v>
+      </c>
+      <c r="L43" s="2">
         <v>258</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <v>62.6</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <v>82.5</v>
       </c>
-      <c r="N43" s="2">
+      <c r="O43" s="2">
         <v>12.5</v>
       </c>
-      <c r="O43" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_43</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>305</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>298</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>341</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="2">
-        <v>3</v>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H44" s="2">
         <v>3</v>
@@ -2982,42 +3167,46 @@
         <v>3</v>
       </c>
       <c r="K44" s="2">
+        <v>3</v>
+      </c>
+      <c r="L44" s="2">
         <v>255</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>69.900000000000006</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <v>89.1</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O44" s="2">
         <v>11.7</v>
       </c>
-      <c r="O44" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_44</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>419</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>402</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>846</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="2">
-        <v>6</v>
+      <c r="G45" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H45" s="2">
         <v>6</v>
@@ -3029,136 +3218,148 @@
         <v>6</v>
       </c>
       <c r="K45" s="2">
+        <v>6</v>
+      </c>
+      <c r="L45" s="2">
         <v>343</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <v>102.9</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <v>116.1</v>
       </c>
-      <c r="N45" s="2">
+      <c r="O45" s="2">
         <v>16.7</v>
       </c>
-      <c r="O45" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_45</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>405</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>399</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <v>872</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G46" s="2">
-        <v>7</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
       </c>
       <c r="I46" s="2">
+        <v>7</v>
+      </c>
+      <c r="J46" s="2">
         <v>6</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>7</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="2">
         <v>342</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <v>94.3</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>112.2</v>
       </c>
-      <c r="N46" s="2">
+      <c r="O46" s="2">
         <v>22.2</v>
       </c>
-      <c r="O46" s="4">
+      <c r="P46" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_46</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>345</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>346</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>483</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>4</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>5</v>
-      </c>
-      <c r="I47" s="2">
-        <v>4</v>
       </c>
       <c r="J47" s="2">
         <v>4</v>
       </c>
       <c r="K47" s="2">
+        <v>4</v>
+      </c>
+      <c r="L47" s="2">
         <v>291</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <v>76</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>90.7</v>
       </c>
-      <c r="N47" s="2">
+      <c r="O47" s="2">
         <v>19.2</v>
       </c>
-      <c r="O47" s="4">
+      <c r="P47" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_47</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>303</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="2">
         <v>422</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>11</v>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>11</v>
@@ -3169,43 +3370,47 @@
       <c r="J48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="2">
         <v>263</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>83</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <v>85.4</v>
       </c>
-      <c r="N48" s="2">
+      <c r="O48" s="2">
         <v>21</v>
       </c>
-      <c r="O48" s="4">
+      <c r="P48" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_48</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>315</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="2">
         <v>416</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>11</v>
+      <c r="G49" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>11</v>
@@ -3216,43 +3421,47 @@
       <c r="J49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="2">
         <v>270</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <v>71.900000000000006</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>88.4</v>
       </c>
-      <c r="N49" s="2">
+      <c r="O49" s="2">
         <v>21.3</v>
       </c>
-      <c r="O49" s="4">
+      <c r="P49" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>FBS_49</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>288</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2">
         <v>383</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>11</v>
+      <c r="G50" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>11</v>
@@ -3263,44 +3472,48 @@
       <c r="J50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="2">
         <v>252</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <v>73.400000000000006</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>78.099999999999994</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O50" s="2">
         <v>20.6</v>
       </c>
-      <c r="O50" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_01</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>305</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>294</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <v>295</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="2">
-        <v>3</v>
-      </c>
       <c r="H51" s="2">
         <v>3</v>
       </c>
@@ -3311,90 +3524,98 @@
         <v>3</v>
       </c>
       <c r="K51" s="2">
+        <v>3</v>
+      </c>
+      <c r="L51" s="2">
         <v>253</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <v>63.7</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <v>81.5</v>
       </c>
-      <c r="N51" s="2">
+      <c r="O51" s="2">
         <v>11.5</v>
       </c>
-      <c r="O51" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_02</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" s="2">
         <v>220</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>212</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>102</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="2">
-        <v>2</v>
-      </c>
       <c r="H52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" s="2">
         <v>2</v>
       </c>
       <c r="K52" s="2">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2">
         <v>183</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <v>46.1</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <v>59.5</v>
       </c>
-      <c r="N52" s="2">
+      <c r="O52" s="2">
         <v>12.2</v>
       </c>
-      <c r="O52" s="4">
+      <c r="P52" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_03</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D53" s="2">
         <v>238</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>229</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <v>133</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="2">
-        <v>2</v>
-      </c>
       <c r="H53" s="2">
         <v>2</v>
       </c>
@@ -3405,42 +3626,46 @@
         <v>2</v>
       </c>
       <c r="K53" s="2">
+        <v>2</v>
+      </c>
+      <c r="L53" s="2">
         <v>195</v>
       </c>
-      <c r="L53" s="2">
+      <c r="M53" s="2">
         <v>51.6</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>65.900000000000006</v>
       </c>
-      <c r="N53" s="2">
+      <c r="O53" s="2">
         <v>11.8</v>
       </c>
-      <c r="O53" s="4">
+      <c r="P53" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_04</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D54" s="2">
         <v>252</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>233</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <v>185</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H54" s="2">
         <v>2</v>
@@ -3452,43 +3677,47 @@
         <v>2</v>
       </c>
       <c r="K54" s="2">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2">
         <v>198</v>
       </c>
-      <c r="L54" s="2">
+      <c r="M54" s="2">
         <v>57.5</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>66.099999999999994</v>
       </c>
-      <c r="N54" s="2">
+      <c r="O54" s="2">
         <v>12.1</v>
       </c>
-      <c r="O54" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_05</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55" s="2">
         <v>253</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>245</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <v>211</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="2">
-        <v>2</v>
-      </c>
       <c r="H55" s="2">
         <v>2</v>
       </c>
@@ -3499,89 +3728,97 @@
         <v>2</v>
       </c>
       <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
         <v>211</v>
       </c>
-      <c r="L55" s="2">
+      <c r="M55" s="2">
         <v>57.5</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="N55" s="2">
+      <c r="O55" s="2">
         <v>14.5</v>
       </c>
-      <c r="O55" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_06</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D56" s="2">
         <v>274</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>267</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <v>192</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2</v>
+      <c r="G56" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H56" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" s="2">
         <v>2</v>
       </c>
       <c r="K56" s="2">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2">
         <v>225</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M56" s="2">
         <v>56.6</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N56" s="2">
         <v>78.3</v>
       </c>
-      <c r="N56" s="2">
+      <c r="O56" s="2">
         <v>11.2</v>
       </c>
-      <c r="O56" s="4">
+      <c r="P56" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_07</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" s="2">
         <v>221</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>210</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <v>110</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="2">
-        <v>2</v>
+      <c r="G57" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H57" s="2">
         <v>2</v>
@@ -3593,42 +3830,46 @@
         <v>2</v>
       </c>
       <c r="K57" s="2">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2">
         <v>178</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M57" s="2">
         <v>43.6</v>
       </c>
-      <c r="M57" s="2">
+      <c r="N57" s="2">
         <v>68.8</v>
       </c>
-      <c r="N57" s="2">
+      <c r="O57" s="2">
         <v>12.4</v>
       </c>
-      <c r="O57" s="4">
+      <c r="P57" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_08</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D58" s="2">
         <v>204</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>199</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <v>92</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2</v>
+      <c r="G58" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
@@ -3640,43 +3881,47 @@
         <v>2</v>
       </c>
       <c r="K58" s="2">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
         <v>173</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <v>46.5</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <v>61.8</v>
       </c>
-      <c r="N58" s="2">
+      <c r="O58" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="O58" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_09</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" s="2">
         <v>270</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>264</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <v>200</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="2">
-        <v>2</v>
-      </c>
       <c r="H59" s="2">
         <v>2</v>
       </c>
@@ -3687,43 +3932,47 @@
         <v>2</v>
       </c>
       <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
         <v>226</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M59" s="2">
         <v>58</v>
       </c>
-      <c r="M59" s="2">
+      <c r="N59" s="2">
         <v>76</v>
       </c>
-      <c r="N59" s="2">
+      <c r="O59" s="2">
         <v>14.5</v>
       </c>
-      <c r="O59" s="4">
+      <c r="P59" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_10</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D60" s="2">
         <v>267</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>262</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <v>196</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
       <c r="H60" s="2">
         <v>2</v>
       </c>
@@ -3734,43 +3983,47 @@
         <v>2</v>
       </c>
       <c r="K60" s="2">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
         <v>225</v>
       </c>
-      <c r="L60" s="2">
+      <c r="M60" s="2">
         <v>59.8</v>
       </c>
-      <c r="M60" s="2">
+      <c r="N60" s="2">
         <v>77.900000000000006</v>
       </c>
-      <c r="N60" s="2">
+      <c r="O60" s="2">
         <v>13.8</v>
       </c>
-      <c r="O60" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_11</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>318</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>303</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>329</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="1">
-        <v>3</v>
-      </c>
       <c r="H61" s="1">
         <v>3</v>
       </c>
@@ -3781,90 +4034,98 @@
         <v>3</v>
       </c>
       <c r="K61" s="1">
+        <v>3</v>
+      </c>
+      <c r="L61" s="1">
         <v>260</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>69.5</v>
       </c>
-      <c r="M61" s="1">
+      <c r="N61" s="1">
         <v>87</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <v>17.2</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_12</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" s="2">
         <v>261</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>252</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <v>210</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="2">
-        <v>2</v>
-      </c>
       <c r="H62" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J62" s="2">
         <v>2</v>
       </c>
       <c r="K62" s="2">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2">
         <v>215</v>
       </c>
-      <c r="L62" s="2">
+      <c r="M62" s="2">
         <v>60.8</v>
       </c>
-      <c r="M62" s="2">
+      <c r="N62" s="2">
         <v>75.599999999999994</v>
       </c>
-      <c r="N62" s="2">
+      <c r="O62" s="2">
         <v>14.1</v>
       </c>
-      <c r="O62" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_13</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="2">
+      <c r="D63" s="2">
         <v>254</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>246</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <v>148</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G63" s="2">
-        <v>2</v>
-      </c>
       <c r="H63" s="2">
         <v>2</v>
       </c>
@@ -3875,43 +4136,47 @@
         <v>2</v>
       </c>
       <c r="K63" s="2">
+        <v>2</v>
+      </c>
+      <c r="L63" s="2">
         <v>214</v>
       </c>
-      <c r="L63" s="2">
+      <c r="M63" s="2">
         <v>55.3</v>
       </c>
-      <c r="M63" s="2">
+      <c r="N63" s="2">
         <v>71.7</v>
       </c>
-      <c r="N63" s="2">
+      <c r="O63" s="2">
         <v>14.5</v>
       </c>
-      <c r="O63" s="4">
+      <c r="P63" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_14</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>287</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>274</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>254</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="1">
-        <v>3</v>
-      </c>
       <c r="H64" s="1">
         <v>3</v>
       </c>
@@ -3922,90 +4187,98 @@
         <v>3</v>
       </c>
       <c r="K64" s="1">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1">
         <v>233</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>60.3</v>
       </c>
-      <c r="M64" s="1">
+      <c r="N64" s="1">
         <v>79.099999999999994</v>
       </c>
-      <c r="N64" s="1">
+      <c r="O64" s="1">
         <v>11.4</v>
       </c>
-      <c r="O64" s="3">
+      <c r="P64" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_15</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="2">
+      <c r="D65" s="2">
         <v>279</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>268</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <v>210</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="2">
-        <v>2</v>
-      </c>
       <c r="H65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" s="2">
         <v>2</v>
       </c>
       <c r="K65" s="2">
+        <v>2</v>
+      </c>
+      <c r="L65" s="2">
         <v>233</v>
       </c>
-      <c r="L65" s="2">
+      <c r="M65" s="2">
         <v>55.5</v>
       </c>
-      <c r="M65" s="2">
+      <c r="N65" s="2">
         <v>74.3</v>
       </c>
-      <c r="N65" s="2">
+      <c r="O65" s="2">
         <v>11.5</v>
       </c>
-      <c r="O65" s="4">
+      <c r="P65" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>FER_16</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D66" s="2">
         <v>231</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>222</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <v>131</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="2">
-        <v>2</v>
-      </c>
       <c r="H66" s="2">
         <v>2</v>
       </c>
@@ -4016,43 +4289,47 @@
         <v>2</v>
       </c>
       <c r="K66" s="2">
+        <v>2</v>
+      </c>
+      <c r="L66" s="2">
         <v>193</v>
       </c>
-      <c r="L66" s="2">
+      <c r="M66" s="2">
         <v>48.9</v>
       </c>
-      <c r="M66" s="2">
+      <c r="N66" s="2">
         <v>61.5</v>
       </c>
-      <c r="N66" s="2">
+      <c r="O66" s="2">
         <v>10.3</v>
       </c>
-      <c r="O66" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B116" si="1">CONCATENATE(LEFT(A67,3),"_",RIGHT(A67,2))</f>
+        <v>FER_17</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="2">
+      <c r="D67" s="2">
         <v>222</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>200</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F67" s="2">
         <v>115</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="2">
-        <v>2</v>
-      </c>
       <c r="H67" s="2">
         <v>2</v>
       </c>
@@ -4063,43 +4340,47 @@
         <v>2</v>
       </c>
       <c r="K67" s="2">
+        <v>2</v>
+      </c>
+      <c r="L67" s="2">
         <v>186</v>
       </c>
-      <c r="L67" s="2">
+      <c r="M67" s="2">
         <v>41.7</v>
       </c>
-      <c r="M67" s="2">
+      <c r="N67" s="2">
         <v>60.3</v>
       </c>
-      <c r="N67" s="2">
+      <c r="O67" s="2">
         <v>9.1</v>
       </c>
-      <c r="O67" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_18</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="2">
+      <c r="D68" s="2">
         <v>201</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>215</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <v>110</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="2">
-        <v>2</v>
-      </c>
       <c r="H68" s="2">
         <v>2</v>
       </c>
@@ -4110,42 +4391,46 @@
         <v>2</v>
       </c>
       <c r="K68" s="2">
+        <v>2</v>
+      </c>
+      <c r="L68" s="2">
         <v>176</v>
       </c>
-      <c r="L68" s="2">
+      <c r="M68" s="2">
         <v>51.1</v>
       </c>
-      <c r="M68" s="2">
+      <c r="N68" s="2">
         <v>60.9</v>
       </c>
-      <c r="N68" s="2">
+      <c r="O68" s="2">
         <v>11.2</v>
       </c>
-      <c r="O68" s="4">
+      <c r="P68" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_19</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C69" s="2">
+      <c r="D69" s="2">
         <v>202</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>218</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <v>120</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="2">
-        <v>3</v>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H69" s="2">
         <v>3</v>
@@ -4157,136 +4442,148 @@
         <v>3</v>
       </c>
       <c r="K69" s="2">
+        <v>3</v>
+      </c>
+      <c r="L69" s="2">
         <v>187</v>
       </c>
-      <c r="L69" s="2">
+      <c r="M69" s="2">
         <v>52.8</v>
       </c>
-      <c r="M69" s="2">
+      <c r="N69" s="2">
         <v>67.7</v>
       </c>
-      <c r="N69" s="2">
+      <c r="O69" s="2">
         <v>10.3</v>
       </c>
-      <c r="O69" s="4">
+      <c r="P69" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_20</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="2">
+      <c r="D70" s="2">
         <v>330</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>311</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="2">
         <v>407</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="2">
+      <c r="G70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="2">
         <v>4</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>5</v>
-      </c>
-      <c r="I70" s="2">
-        <v>4</v>
       </c>
       <c r="J70" s="2">
         <v>4</v>
       </c>
       <c r="K70" s="2">
+        <v>4</v>
+      </c>
+      <c r="L70" s="2">
         <v>264</v>
       </c>
-      <c r="L70" s="2">
+      <c r="M70" s="2">
         <v>72.2</v>
       </c>
-      <c r="M70" s="2">
+      <c r="N70" s="2">
         <v>91.7</v>
       </c>
-      <c r="N70" s="2">
+      <c r="O70" s="2">
         <v>14.8</v>
       </c>
-      <c r="O70" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_21</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>209</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>202</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>100</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="1">
-        <v>2</v>
-      </c>
       <c r="H71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J71" s="1">
         <v>2</v>
       </c>
       <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1">
         <v>176</v>
       </c>
-      <c r="L71" s="1">
+      <c r="M71" s="1">
         <v>42.7</v>
       </c>
-      <c r="M71" s="1">
+      <c r="N71" s="1">
         <v>57.9</v>
       </c>
-      <c r="N71" s="1">
+      <c r="O71" s="1">
         <v>9.1</v>
       </c>
-      <c r="O71" s="3">
+      <c r="P71" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_22</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="2">
+      <c r="D72" s="2">
         <v>232</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>230</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <v>157</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="2">
-        <v>2</v>
+      <c r="G72" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H72" s="2">
         <v>2</v>
@@ -4298,43 +4595,47 @@
         <v>2</v>
       </c>
       <c r="K72" s="2">
+        <v>2</v>
+      </c>
+      <c r="L72" s="2">
         <v>185</v>
       </c>
-      <c r="L72" s="2">
+      <c r="M72" s="2">
         <v>56.7</v>
       </c>
-      <c r="M72" s="2">
+      <c r="N72" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="N72" s="2">
+      <c r="O72" s="2">
         <v>11.6</v>
       </c>
-      <c r="O72" s="4">
+      <c r="P72" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_23</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="2">
+      <c r="D73" s="2">
         <v>257</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>251</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <v>202</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="2">
-        <v>3</v>
-      </c>
       <c r="H73" s="2">
         <v>3</v>
       </c>
@@ -4345,43 +4646,47 @@
         <v>3</v>
       </c>
       <c r="K73" s="2">
+        <v>3</v>
+      </c>
+      <c r="L73" s="2">
         <v>217</v>
       </c>
-      <c r="L73" s="2">
+      <c r="M73" s="2">
         <v>58</v>
       </c>
-      <c r="M73" s="2">
+      <c r="N73" s="2">
         <v>74.5</v>
       </c>
-      <c r="N73" s="2">
+      <c r="O73" s="2">
         <v>10.3</v>
       </c>
-      <c r="O73" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_24</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D74" s="2">
         <v>261</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>249</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <v>225</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="G74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G74" s="2">
-        <v>2</v>
-      </c>
       <c r="H74" s="2">
         <v>2</v>
       </c>
@@ -4392,42 +4697,46 @@
         <v>2</v>
       </c>
       <c r="K74" s="2">
+        <v>2</v>
+      </c>
+      <c r="L74" s="2">
         <v>211</v>
       </c>
-      <c r="L74" s="2">
+      <c r="M74" s="2">
         <v>58</v>
       </c>
-      <c r="M74" s="2">
+      <c r="N74" s="2">
         <v>75.099999999999994</v>
       </c>
-      <c r="N74" s="2">
+      <c r="O74" s="2">
         <v>12.6</v>
       </c>
-      <c r="O74" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_25</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="2">
+      <c r="D75" s="2">
         <v>280</v>
       </c>
-      <c r="D75" s="2">
+      <c r="E75" s="2">
         <v>272</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <v>260</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="2">
-        <v>3</v>
+      <c r="G75" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H75" s="2">
         <v>3</v>
@@ -4439,43 +4748,47 @@
         <v>3</v>
       </c>
       <c r="K75" s="2">
+        <v>3</v>
+      </c>
+      <c r="L75" s="2">
         <v>230</v>
       </c>
-      <c r="L75" s="2">
+      <c r="M75" s="2">
         <v>62.5</v>
       </c>
-      <c r="M75" s="2">
+      <c r="N75" s="2">
         <v>79.900000000000006</v>
       </c>
-      <c r="N75" s="2">
+      <c r="O75" s="2">
         <v>12.2</v>
       </c>
-      <c r="O75" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_26</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="2">
+      <c r="D76" s="2">
         <v>259</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>254</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <v>170</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="2">
-        <v>3</v>
-      </c>
       <c r="H76" s="2">
         <v>3</v>
       </c>
@@ -4486,42 +4799,46 @@
         <v>3</v>
       </c>
       <c r="K76" s="2">
+        <v>3</v>
+      </c>
+      <c r="L76" s="2">
         <v>217</v>
       </c>
-      <c r="L76" s="2">
+      <c r="M76" s="2">
         <v>57.6</v>
       </c>
-      <c r="M76" s="2">
+      <c r="N76" s="2">
         <v>75.599999999999994</v>
       </c>
-      <c r="N76" s="2">
+      <c r="O76" s="2">
         <v>15.5</v>
       </c>
-      <c r="O76" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_27</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" s="2">
         <v>236</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>227</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <v>158</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="2">
-        <v>2</v>
+      <c r="G77" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H77" s="2">
         <v>2</v>
@@ -4533,42 +4850,46 @@
         <v>2</v>
       </c>
       <c r="K77" s="2">
+        <v>2</v>
+      </c>
+      <c r="L77" s="2">
         <v>192</v>
       </c>
-      <c r="L77" s="2">
+      <c r="M77" s="2">
         <v>58.2</v>
       </c>
-      <c r="M77" s="2">
+      <c r="N77" s="2">
         <v>68.099999999999994</v>
       </c>
-      <c r="N77" s="2">
+      <c r="O77" s="2">
         <v>11.5</v>
       </c>
-      <c r="O77" s="4">
+      <c r="P77" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_28</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C78" s="2">
+      <c r="D78" s="2">
         <v>389</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>377</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <v>680</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="2">
-        <v>7</v>
+      <c r="G78" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H78" s="2">
         <v>7</v>
@@ -4580,43 +4901,47 @@
         <v>7</v>
       </c>
       <c r="K78" s="2">
+        <v>7</v>
+      </c>
+      <c r="L78" s="2">
         <v>323</v>
       </c>
-      <c r="L78" s="2">
+      <c r="M78" s="2">
         <v>96.3</v>
       </c>
-      <c r="M78" s="2">
+      <c r="N78" s="2">
         <v>109.5</v>
       </c>
-      <c r="N78" s="2">
+      <c r="O78" s="2">
         <v>16</v>
       </c>
-      <c r="O78" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_29</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="2">
+      <c r="D79" s="2">
         <v>215</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>205</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <v>104</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="2">
-        <v>2</v>
-      </c>
       <c r="H79" s="2">
         <v>2</v>
       </c>
@@ -4627,42 +4952,46 @@
         <v>2</v>
       </c>
       <c r="K79" s="2">
+        <v>2</v>
+      </c>
+      <c r="L79" s="2">
         <v>175</v>
       </c>
-      <c r="L79" s="2">
+      <c r="M79" s="2">
         <v>46.4</v>
       </c>
-      <c r="M79" s="2">
+      <c r="N79" s="2">
         <v>55</v>
       </c>
-      <c r="N79" s="2">
+      <c r="O79" s="2">
         <v>10.7</v>
       </c>
-      <c r="O79" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_30</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="2">
+      <c r="D80" s="2">
         <v>407</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>393</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>797</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G80" s="2">
-        <v>6</v>
       </c>
       <c r="H80" s="2">
         <v>6</v>
@@ -4674,43 +5003,47 @@
         <v>6</v>
       </c>
       <c r="K80" s="2">
+        <v>6</v>
+      </c>
+      <c r="L80" s="2">
         <v>332</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>92.6</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>106.1</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>20.6</v>
       </c>
-      <c r="O80" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_31</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="2">
+      <c r="D81" s="2">
         <v>235</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>226</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <v>144</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="G81" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="2">
-        <v>2</v>
-      </c>
       <c r="H81" s="2">
         <v>2</v>
       </c>
@@ -4721,43 +5054,47 @@
         <v>2</v>
       </c>
       <c r="K81" s="2">
+        <v>2</v>
+      </c>
+      <c r="L81" s="2">
         <v>195</v>
       </c>
-      <c r="L81" s="2">
+      <c r="M81" s="2">
         <v>50.2</v>
       </c>
-      <c r="M81" s="2">
+      <c r="N81" s="2">
         <v>62.6</v>
       </c>
-      <c r="N81" s="2">
+      <c r="O81" s="2">
         <v>10.3</v>
       </c>
-      <c r="O81" s="4">
+      <c r="P81" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_32</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="2">
+      <c r="D82" s="2">
         <v>235</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>231</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <v>146</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G82" s="2">
-        <v>2</v>
-      </c>
       <c r="H82" s="2">
         <v>2</v>
       </c>
@@ -4768,43 +5105,47 @@
         <v>2</v>
       </c>
       <c r="K82" s="2">
+        <v>2</v>
+      </c>
+      <c r="L82" s="2">
         <v>203</v>
       </c>
-      <c r="L82" s="2">
+      <c r="M82" s="2">
         <v>50</v>
       </c>
-      <c r="M82" s="2">
+      <c r="N82" s="2">
         <v>64.5</v>
       </c>
-      <c r="N82" s="2">
+      <c r="O82" s="2">
         <v>12.7</v>
       </c>
-      <c r="O82" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_33</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C83" s="2">
+      <c r="D83" s="2">
         <v>209</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>203</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <v>82</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="2">
-        <v>2</v>
-      </c>
       <c r="H83" s="2">
         <v>2</v>
       </c>
@@ -4815,43 +5156,47 @@
         <v>2</v>
       </c>
       <c r="K83" s="2">
+        <v>2</v>
+      </c>
+      <c r="L83" s="2">
         <v>175</v>
       </c>
-      <c r="L83" s="2">
+      <c r="M83" s="2">
         <v>43.5</v>
       </c>
-      <c r="M83" s="2">
+      <c r="N83" s="2">
         <v>58.1</v>
       </c>
-      <c r="N83" s="2">
+      <c r="O83" s="2">
         <v>13</v>
       </c>
-      <c r="O83" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_34</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" s="2">
         <v>242</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>236</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84" s="2">
         <v>157</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="2">
-        <v>2</v>
-      </c>
       <c r="H84" s="2">
         <v>2</v>
       </c>
@@ -4862,90 +5207,98 @@
         <v>2</v>
       </c>
       <c r="K84" s="2">
+        <v>2</v>
+      </c>
+      <c r="L84" s="2">
         <v>207</v>
       </c>
-      <c r="L84" s="2">
+      <c r="M84" s="2">
         <v>56.5</v>
       </c>
-      <c r="M84" s="2">
+      <c r="N84" s="2">
         <v>67.400000000000006</v>
       </c>
-      <c r="N84" s="2">
+      <c r="O84" s="2">
         <v>11.9</v>
       </c>
-      <c r="O84" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_35</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="2">
+      <c r="D85" s="2">
         <v>238</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>230</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
         <v>143</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="2">
-        <v>2</v>
+      <c r="G85" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85" s="2">
         <v>2</v>
       </c>
       <c r="K85" s="2">
+        <v>2</v>
+      </c>
+      <c r="L85" s="2">
         <v>196</v>
       </c>
-      <c r="L85" s="2">
+      <c r="M85" s="2">
         <v>53.4</v>
       </c>
-      <c r="M85" s="2">
+      <c r="N85" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="N85" s="2">
+      <c r="O85" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="O85" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_36</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="2">
+      <c r="D86" s="2">
         <v>234</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>226</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="2">
         <v>148</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G86" s="2">
-        <v>2</v>
-      </c>
       <c r="H86" s="2">
         <v>2</v>
       </c>
@@ -4956,43 +5309,47 @@
         <v>2</v>
       </c>
       <c r="K86" s="2">
+        <v>2</v>
+      </c>
+      <c r="L86" s="2">
         <v>195</v>
       </c>
-      <c r="L86" s="2">
+      <c r="M86" s="2">
         <v>48.5</v>
       </c>
-      <c r="M86" s="2">
+      <c r="N86" s="2">
         <v>68.599999999999994</v>
       </c>
-      <c r="N86" s="2">
+      <c r="O86" s="2">
         <v>12.2</v>
       </c>
-      <c r="O86" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_37</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D87" s="2">
         <v>240</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>231</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87" s="2">
         <v>148</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="2">
-        <v>2</v>
-      </c>
       <c r="H87" s="2">
         <v>2</v>
       </c>
@@ -5003,43 +5360,47 @@
         <v>2</v>
       </c>
       <c r="K87" s="2">
+        <v>2</v>
+      </c>
+      <c r="L87" s="2">
         <v>197</v>
       </c>
-      <c r="L87" s="2">
+      <c r="M87" s="2">
         <v>49.1</v>
       </c>
-      <c r="M87" s="2">
+      <c r="N87" s="2">
         <v>67.7</v>
       </c>
-      <c r="N87" s="2">
+      <c r="O87" s="2">
         <v>13.5</v>
       </c>
-      <c r="O87" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_38</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="2">
+      <c r="D88" s="2">
         <v>238</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>229</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <v>136</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G88" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="2">
-        <v>2</v>
-      </c>
       <c r="H88" s="2">
         <v>2</v>
       </c>
@@ -5050,43 +5411,47 @@
         <v>2</v>
       </c>
       <c r="K88" s="2">
+        <v>2</v>
+      </c>
+      <c r="L88" s="2">
         <v>197</v>
       </c>
-      <c r="L88" s="2">
+      <c r="M88" s="2">
         <v>50.1</v>
       </c>
-      <c r="M88" s="2">
+      <c r="N88" s="2">
         <v>68.900000000000006</v>
       </c>
-      <c r="N88" s="2">
+      <c r="O88" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="O88" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_39</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C89" s="2">
+      <c r="D89" s="2">
         <v>247</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>240</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <v>164</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G89" s="2">
-        <v>2</v>
-      </c>
       <c r="H89" s="2">
         <v>2</v>
       </c>
@@ -5097,89 +5462,97 @@
         <v>2</v>
       </c>
       <c r="K89" s="2">
+        <v>2</v>
+      </c>
+      <c r="L89" s="2">
         <v>203</v>
       </c>
-      <c r="L89" s="2">
+      <c r="M89" s="2">
         <v>57.3</v>
       </c>
-      <c r="M89" s="2">
+      <c r="N89" s="2">
         <v>73.2</v>
       </c>
-      <c r="N89" s="2">
+      <c r="O89" s="2">
         <v>14.5</v>
       </c>
-      <c r="O89" s="4">
+      <c r="P89" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_40</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="2">
+      <c r="D90" s="2">
         <v>251</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>244</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
         <v>235</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="2">
-        <v>2</v>
-      </c>
       <c r="H90" s="2">
+        <v>2</v>
+      </c>
+      <c r="I90" s="2">
         <v>4</v>
       </c>
-      <c r="I90" s="2">
-        <v>2</v>
-      </c>
       <c r="J90" s="2">
         <v>2</v>
       </c>
       <c r="K90" s="2">
+        <v>2</v>
+      </c>
+      <c r="L90" s="2">
         <v>212</v>
       </c>
-      <c r="L90" s="2">
+      <c r="M90" s="2">
         <v>56.3</v>
       </c>
-      <c r="M90" s="2">
+      <c r="N90" s="2">
         <v>71.599999999999994</v>
       </c>
-      <c r="N90" s="2">
+      <c r="O90" s="2">
         <v>12.5</v>
       </c>
-      <c r="O90" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_41</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="2">
+      <c r="D91" s="2">
         <v>250</v>
       </c>
-      <c r="D91" s="2">
+      <c r="E91" s="2">
         <v>239</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <v>185</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" s="2">
-        <v>3</v>
+      <c r="G91" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H91" s="2">
         <v>3</v>
@@ -5191,137 +5564,149 @@
         <v>3</v>
       </c>
       <c r="K91" s="2">
+        <v>3</v>
+      </c>
+      <c r="L91" s="2">
         <v>203</v>
       </c>
-      <c r="L91" s="2">
+      <c r="M91" s="2">
         <v>59.5</v>
       </c>
-      <c r="M91" s="2">
+      <c r="N91" s="2">
         <v>69</v>
       </c>
-      <c r="N91" s="2">
+      <c r="O91" s="2">
         <v>11.8</v>
       </c>
-      <c r="O91" s="4">
+      <c r="P91" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_42</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C92" s="2">
+      <c r="D92" s="2">
         <v>289</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>274</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <v>283</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="2">
-        <v>3</v>
+      <c r="G92" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H92" s="2">
+        <v>3</v>
+      </c>
+      <c r="I92" s="2">
         <v>4</v>
       </c>
-      <c r="I92" s="2">
-        <v>3</v>
-      </c>
       <c r="J92" s="2">
         <v>3</v>
       </c>
       <c r="K92" s="2">
+        <v>3</v>
+      </c>
+      <c r="L92" s="2">
         <v>239</v>
       </c>
-      <c r="L92" s="2">
+      <c r="M92" s="2">
         <v>66.3</v>
       </c>
-      <c r="M92" s="2">
+      <c r="N92" s="2">
         <v>82.6</v>
       </c>
-      <c r="N92" s="2">
+      <c r="O92" s="2">
         <v>11.5</v>
       </c>
-      <c r="O92" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_43</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="2">
+      <c r="D93" s="2">
         <v>250</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>244</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <v>186</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="2">
-        <v>2</v>
-      </c>
       <c r="H93" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" s="2">
         <v>2</v>
       </c>
       <c r="K93" s="2">
+        <v>2</v>
+      </c>
+      <c r="L93" s="2">
         <v>210</v>
       </c>
-      <c r="L93" s="2">
+      <c r="M93" s="2">
         <v>57.9</v>
       </c>
-      <c r="M93" s="2">
+      <c r="N93" s="2">
         <v>69.900000000000006</v>
       </c>
-      <c r="N93" s="2">
+      <c r="O93" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="O93" s="4">
+      <c r="P93" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_44</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C94" s="2">
+      <c r="D94" s="2">
         <v>252</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>246</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <v>186</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="G94" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="2">
-        <v>2</v>
-      </c>
       <c r="H94" s="2">
         <v>2</v>
       </c>
@@ -5332,43 +5717,47 @@
         <v>2</v>
       </c>
       <c r="K94" s="2">
+        <v>2</v>
+      </c>
+      <c r="L94" s="2">
         <v>212</v>
       </c>
-      <c r="L94" s="2">
+      <c r="M94" s="2">
         <v>54.7</v>
       </c>
-      <c r="M94" s="2">
+      <c r="N94" s="2">
         <v>72.5</v>
       </c>
-      <c r="N94" s="2">
+      <c r="O94" s="2">
         <v>10.4</v>
       </c>
-      <c r="O94" s="4">
+      <c r="P94" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_45</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C95" s="2">
+      <c r="D95" s="2">
         <v>254</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>250</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <v>146</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="2">
-        <v>3</v>
-      </c>
       <c r="H95" s="2">
         <v>3</v>
       </c>
@@ -5379,42 +5768,46 @@
         <v>3</v>
       </c>
       <c r="K95" s="2">
+        <v>3</v>
+      </c>
+      <c r="L95" s="2">
         <v>216</v>
       </c>
-      <c r="L95" s="2">
+      <c r="M95" s="2">
         <v>48.8</v>
       </c>
-      <c r="M95" s="2">
+      <c r="N95" s="2">
         <v>70</v>
       </c>
-      <c r="N95" s="2">
+      <c r="O95" s="2">
         <v>14.1</v>
       </c>
-      <c r="O95" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_46</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C96" s="2">
+      <c r="D96" s="2">
         <v>213</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>205</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96" s="2">
         <v>98</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="2">
-        <v>2</v>
+      <c r="G96" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H96" s="2">
         <v>2</v>
@@ -5426,42 +5819,46 @@
         <v>2</v>
       </c>
       <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
         <v>175</v>
       </c>
-      <c r="L96" s="2">
+      <c r="M96" s="2">
         <v>44.5</v>
       </c>
-      <c r="M96" s="2">
+      <c r="N96" s="2">
         <v>55.8</v>
       </c>
-      <c r="N96" s="2">
+      <c r="O96" s="2">
         <v>9.4</v>
       </c>
-      <c r="O96" s="4">
+      <c r="P96" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_47</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="2">
+      <c r="D97" s="2">
         <v>245</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>224</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <v>189</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="2">
-        <v>2</v>
+      <c r="G97" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H97" s="2">
         <v>2</v>
@@ -5473,90 +5870,98 @@
         <v>2</v>
       </c>
       <c r="K97" s="2">
+        <v>2</v>
+      </c>
+      <c r="L97" s="2">
         <v>199</v>
       </c>
-      <c r="L97" s="2">
+      <c r="M97" s="2">
         <v>58.9</v>
       </c>
-      <c r="M97" s="2">
+      <c r="N97" s="2">
         <v>68.2</v>
       </c>
-      <c r="N97" s="2">
+      <c r="O97" s="2">
         <v>11.2</v>
       </c>
-      <c r="O97" s="4">
+      <c r="P97" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_48</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="2">
+      <c r="D98" s="2">
         <v>300</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>288</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <v>329</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="2">
-        <v>3</v>
+      <c r="G98" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H98" s="2">
         <v>3</v>
       </c>
       <c r="I98" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K98" s="2">
+        <v>3</v>
+      </c>
+      <c r="L98" s="2">
         <v>243</v>
       </c>
-      <c r="L98" s="2">
+      <c r="M98" s="2">
         <v>70.5</v>
       </c>
-      <c r="M98" s="2">
+      <c r="N98" s="2">
         <v>83.6</v>
       </c>
-      <c r="N98" s="2">
+      <c r="O98" s="2">
         <v>13.5</v>
       </c>
-      <c r="O98" s="4">
+      <c r="P98" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_49</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C99" s="2">
+      <c r="D99" s="2">
         <v>279</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>276</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <v>295</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="G99" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="2">
-        <v>3</v>
-      </c>
       <c r="H99" s="2">
         <v>3</v>
       </c>
@@ -5567,137 +5972,149 @@
         <v>3</v>
       </c>
       <c r="K99" s="2">
+        <v>3</v>
+      </c>
+      <c r="L99" s="2">
         <v>242</v>
       </c>
-      <c r="L99" s="2">
+      <c r="M99" s="2">
         <v>70</v>
       </c>
-      <c r="M99" s="2">
+      <c r="N99" s="2">
         <v>70.7</v>
       </c>
-      <c r="N99" s="2">
+      <c r="O99" s="2">
         <v>11.5</v>
       </c>
-      <c r="O99" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_50</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="2">
+      <c r="D100" s="2">
         <v>277</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>269</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <v>220</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <v>4</v>
       </c>
-      <c r="H100" s="2">
+      <c r="I100" s="2">
         <v>5</v>
-      </c>
-      <c r="I100" s="2">
-        <v>4</v>
       </c>
       <c r="J100" s="2">
         <v>4</v>
       </c>
       <c r="K100" s="2">
+        <v>4</v>
+      </c>
+      <c r="L100" s="2">
         <v>233</v>
       </c>
-      <c r="L100" s="2">
+      <c r="M100" s="2">
         <v>56.8</v>
       </c>
-      <c r="M100" s="2">
+      <c r="N100" s="2">
         <v>75.7</v>
       </c>
-      <c r="N100" s="2">
+      <c r="O100" s="2">
         <v>10.4</v>
       </c>
-      <c r="O100" s="4">
+      <c r="P100" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_51</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="2">
+      <c r="D101" s="2">
         <v>275</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>263</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="2">
         <v>197</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="2">
-        <v>3</v>
-      </c>
       <c r="H101" s="2">
+        <v>3</v>
+      </c>
+      <c r="I101" s="2">
         <v>4</v>
       </c>
-      <c r="I101" s="2">
-        <v>3</v>
-      </c>
       <c r="J101" s="2">
         <v>3</v>
       </c>
       <c r="K101" s="2">
+        <v>3</v>
+      </c>
+      <c r="L101" s="2">
         <v>224</v>
       </c>
-      <c r="L101" s="2">
+      <c r="M101" s="2">
         <v>55.4</v>
       </c>
-      <c r="M101" s="2">
+      <c r="N101" s="2">
         <v>74.2</v>
       </c>
-      <c r="N101" s="2">
+      <c r="O101" s="2">
         <v>14.9</v>
       </c>
-      <c r="O101" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_52</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C102" s="2">
+      <c r="D102" s="2">
         <v>311</v>
       </c>
-      <c r="D102" s="2">
+      <c r="E102" s="2">
         <v>296</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="2">
         <v>349</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="2">
-        <v>3</v>
-      </c>
       <c r="H102" s="2">
         <v>3</v>
       </c>
@@ -5708,42 +6125,46 @@
         <v>3</v>
       </c>
       <c r="K102" s="2">
+        <v>3</v>
+      </c>
+      <c r="L102" s="2">
         <v>258</v>
       </c>
-      <c r="L102" s="2">
+      <c r="M102" s="2">
         <v>72.400000000000006</v>
       </c>
-      <c r="M102" s="2">
+      <c r="N102" s="2">
         <v>83.6</v>
       </c>
-      <c r="N102" s="2">
+      <c r="O102" s="2">
         <v>12.6</v>
       </c>
-      <c r="O102" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_53</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="2">
+      <c r="D103" s="2">
         <v>292</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>277</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <v>306</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" s="2">
-        <v>3</v>
+      <c r="G103" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H103" s="2">
         <v>3</v>
@@ -5755,42 +6176,46 @@
         <v>3</v>
       </c>
       <c r="K103" s="2">
+        <v>3</v>
+      </c>
+      <c r="L103" s="2">
         <v>233</v>
       </c>
-      <c r="L103" s="2">
+      <c r="M103" s="2">
         <v>72</v>
       </c>
-      <c r="M103" s="2">
+      <c r="N103" s="2">
         <v>83.9</v>
       </c>
-      <c r="N103" s="2">
+      <c r="O103" s="2">
         <v>12.1</v>
       </c>
-      <c r="O103" s="4">
+      <c r="P103" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_54</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="2">
+      <c r="D104" s="2">
         <v>281</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>275</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <v>246</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="2">
-        <v>2</v>
+      <c r="G104" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H104" s="2">
         <v>2</v>
@@ -5802,43 +6227,47 @@
         <v>2</v>
       </c>
       <c r="K104" s="2">
+        <v>2</v>
+      </c>
+      <c r="L104" s="2">
         <v>231</v>
       </c>
-      <c r="L104" s="2">
+      <c r="M104" s="2">
         <v>64.599999999999994</v>
       </c>
-      <c r="M104" s="2">
+      <c r="N104" s="2">
         <v>77.3</v>
       </c>
-      <c r="N104" s="2">
+      <c r="O104" s="2">
         <v>11.3</v>
       </c>
-      <c r="O104" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_55</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C105" s="2">
+      <c r="D105" s="2">
         <v>285</v>
       </c>
-      <c r="D105" s="2">
+      <c r="E105" s="2">
         <v>273</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="2">
         <v>271</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="2">
-        <v>2</v>
-      </c>
       <c r="H105" s="2">
         <v>2</v>
       </c>
@@ -5849,42 +6278,46 @@
         <v>2</v>
       </c>
       <c r="K105" s="2">
+        <v>2</v>
+      </c>
+      <c r="L105" s="2">
         <v>232</v>
       </c>
-      <c r="L105" s="2">
+      <c r="M105" s="2">
         <v>63.4</v>
       </c>
-      <c r="M105" s="2">
+      <c r="N105" s="2">
         <v>77.900000000000006</v>
       </c>
-      <c r="N105" s="2">
+      <c r="O105" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="O105" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_56</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C106" s="2">
+      <c r="D106" s="2">
         <v>310</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="2">
         <v>291</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <v>323</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="2">
-        <v>3</v>
+      <c r="G106" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H106" s="2">
         <v>3</v>
@@ -5896,89 +6329,97 @@
         <v>3</v>
       </c>
       <c r="K106" s="2">
+        <v>3</v>
+      </c>
+      <c r="L106" s="2">
         <v>247</v>
       </c>
-      <c r="L106" s="2">
+      <c r="M106" s="2">
         <v>70</v>
       </c>
-      <c r="M106" s="2">
+      <c r="N106" s="2">
         <v>88.3</v>
       </c>
-      <c r="N106" s="2">
+      <c r="O106" s="2">
         <v>14.8</v>
       </c>
-      <c r="O106" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_57</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="2">
+      <c r="D107" s="2">
         <v>379</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
         <v>365</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <v>580</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="2">
+      <c r="H107" s="2">
         <v>4</v>
       </c>
-      <c r="H107" s="2">
+      <c r="I107" s="2">
         <v>5</v>
-      </c>
-      <c r="I107" s="2">
-        <v>4</v>
       </c>
       <c r="J107" s="2">
         <v>4</v>
       </c>
       <c r="K107" s="2">
+        <v>4</v>
+      </c>
+      <c r="L107" s="2">
         <v>305</v>
       </c>
-      <c r="L107" s="2">
+      <c r="M107" s="2">
         <v>86.2</v>
       </c>
-      <c r="M107" s="2">
+      <c r="N107" s="2">
         <v>99</v>
       </c>
-      <c r="N107" s="2">
+      <c r="O107" s="2">
         <v>14.8</v>
       </c>
-      <c r="O107" s="4">
+      <c r="P107" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_58</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C108" s="2">
+      <c r="D108" s="2">
         <v>391</v>
       </c>
-      <c r="D108" s="2">
+      <c r="E108" s="2">
         <v>370</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108" s="2">
         <v>583</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="2">
-        <v>7</v>
+      <c r="G108" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H108" s="2">
         <v>7</v>
@@ -5990,137 +6431,149 @@
         <v>7</v>
       </c>
       <c r="K108" s="2">
+        <v>7</v>
+      </c>
+      <c r="L108" s="2">
         <v>314</v>
       </c>
-      <c r="L108" s="2">
+      <c r="M108" s="2">
         <v>93.2</v>
       </c>
-      <c r="M108" s="2">
+      <c r="N108" s="2">
         <v>110.3</v>
       </c>
-      <c r="N108" s="2">
+      <c r="O108" s="2">
         <v>15.5</v>
       </c>
-      <c r="O108" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_59</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C109" s="2">
+      <c r="D109" s="2">
         <v>380</v>
       </c>
-      <c r="D109" s="2">
+      <c r="E109" s="2">
         <v>364</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <v>605</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="G109" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G109" s="2">
-        <v>3</v>
-      </c>
       <c r="H109" s="2">
+        <v>3</v>
+      </c>
+      <c r="I109" s="2">
         <v>4</v>
       </c>
-      <c r="I109" s="2">
-        <v>3</v>
-      </c>
       <c r="J109" s="2">
         <v>3</v>
       </c>
       <c r="K109" s="2">
+        <v>3</v>
+      </c>
+      <c r="L109" s="2">
         <v>312</v>
       </c>
-      <c r="L109" s="2">
+      <c r="M109" s="2">
         <v>83.2</v>
       </c>
-      <c r="M109" s="2">
+      <c r="N109" s="2">
         <v>99.9</v>
       </c>
-      <c r="N109" s="2">
+      <c r="O109" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="O109" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_60</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="2">
+      <c r="D110" s="2">
         <v>331</v>
       </c>
-      <c r="D110" s="2">
+      <c r="E110" s="2">
         <v>316</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="2">
         <v>409</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="2">
-        <v>3</v>
+      <c r="G110" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H110" s="2">
+        <v>3</v>
+      </c>
+      <c r="I110" s="2">
         <v>4</v>
       </c>
-      <c r="I110" s="2">
-        <v>3</v>
-      </c>
       <c r="J110" s="2">
         <v>3</v>
       </c>
       <c r="K110" s="2">
+        <v>3</v>
+      </c>
+      <c r="L110" s="2">
         <v>270</v>
       </c>
-      <c r="L110" s="2">
+      <c r="M110" s="2">
         <v>72.3</v>
       </c>
-      <c r="M110" s="2">
+      <c r="N110" s="2">
         <v>91</v>
       </c>
-      <c r="N110" s="2">
+      <c r="O110" s="2">
         <v>14.2</v>
       </c>
-      <c r="O110" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_61</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C111" s="2">
+      <c r="D111" s="2">
         <v>340</v>
       </c>
-      <c r="D111" s="2">
+      <c r="E111" s="2">
         <v>332</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="2">
         <v>416</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="G111" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G111" s="2">
-        <v>3</v>
-      </c>
       <c r="H111" s="2">
         <v>3</v>
       </c>
@@ -6131,42 +6584,46 @@
         <v>3</v>
       </c>
       <c r="K111" s="2">
+        <v>3</v>
+      </c>
+      <c r="L111" s="2">
         <v>282</v>
       </c>
-      <c r="L111" s="2">
+      <c r="M111" s="2">
         <v>70.7</v>
       </c>
-      <c r="M111" s="2">
+      <c r="N111" s="2">
         <v>90</v>
       </c>
-      <c r="N111" s="2">
+      <c r="O111" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="O111" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_62</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="2">
+      <c r="D112" s="2">
         <v>307</v>
       </c>
-      <c r="D112" s="2">
+      <c r="E112" s="2">
         <v>296</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112" s="2">
         <v>329</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="G112" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G112" s="2">
-        <v>4</v>
       </c>
       <c r="H112" s="2">
         <v>4</v>
@@ -6178,90 +6635,98 @@
         <v>4</v>
       </c>
       <c r="K112" s="2">
+        <v>4</v>
+      </c>
+      <c r="L112" s="2">
         <v>255</v>
       </c>
-      <c r="L112" s="2">
+      <c r="M112" s="2">
         <v>73.2</v>
       </c>
-      <c r="M112" s="2">
+      <c r="N112" s="2">
         <v>86.6</v>
       </c>
-      <c r="N112" s="2">
+      <c r="O112" s="2">
         <v>14.9</v>
       </c>
-      <c r="O112" s="4">
+      <c r="P112" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_63</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C113" s="2">
+      <c r="D113" s="2">
         <v>360</v>
       </c>
-      <c r="D113" s="2">
+      <c r="E113" s="2">
         <v>347</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <v>564</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="2">
+      <c r="G113" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="2">
         <v>8</v>
       </c>
-      <c r="H113" s="2">
+      <c r="I113" s="2">
         <v>9</v>
-      </c>
-      <c r="I113" s="2">
-        <v>8</v>
       </c>
       <c r="J113" s="2">
         <v>8</v>
       </c>
       <c r="K113" s="2">
+        <v>8</v>
+      </c>
+      <c r="L113" s="2">
         <v>301</v>
       </c>
-      <c r="L113" s="2">
+      <c r="M113" s="2">
         <v>80.7</v>
       </c>
-      <c r="M113" s="2">
+      <c r="N113" s="2">
         <v>108.9</v>
       </c>
-      <c r="N113" s="2">
+      <c r="O113" s="2">
         <v>15.7</v>
       </c>
-      <c r="O113" s="4">
+      <c r="P113" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_64</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C114" s="2">
+      <c r="D114" s="2">
         <v>282</v>
       </c>
-      <c r="D114" s="2">
+      <c r="E114" s="2">
         <v>279</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <v>261</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="G114" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G114" s="2">
-        <v>3</v>
-      </c>
       <c r="H114" s="2">
         <v>3</v>
       </c>
@@ -6272,42 +6737,46 @@
         <v>3</v>
       </c>
       <c r="K114" s="2">
+        <v>3</v>
+      </c>
+      <c r="L114" s="2">
         <v>238</v>
       </c>
-      <c r="L114" s="2">
+      <c r="M114" s="2">
         <v>61.5</v>
       </c>
-      <c r="M114" s="2">
+      <c r="N114" s="2">
         <v>75.599999999999994</v>
       </c>
-      <c r="N114" s="2">
+      <c r="O114" s="2">
         <v>11.3</v>
       </c>
-      <c r="O114" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_65</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="2">
+      <c r="D115" s="2">
         <v>262</v>
       </c>
-      <c r="D115" s="2">
+      <c r="E115" s="2">
         <v>255</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <v>225</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="2">
-        <v>2</v>
+      <c r="G115" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H115" s="2">
         <v>2</v>
@@ -6319,89 +6788,97 @@
         <v>2</v>
       </c>
       <c r="K115" s="2">
+        <v>2</v>
+      </c>
+      <c r="L115" s="2">
         <v>217</v>
       </c>
-      <c r="L115" s="2">
+      <c r="M115" s="2">
         <v>63</v>
       </c>
-      <c r="M115" s="2">
+      <c r="N115" s="2">
         <v>78</v>
       </c>
-      <c r="N115" s="2">
+      <c r="O115" s="2">
         <v>11.4</v>
       </c>
-      <c r="O115" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>FER_66</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C116" s="2">
+      <c r="D116" s="2">
         <v>252</v>
       </c>
-      <c r="D116" s="2">
+      <c r="E116" s="2">
         <v>247</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="2">
         <v>195</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G116" s="2">
-        <v>3</v>
-      </c>
       <c r="H116" s="2">
+        <v>3</v>
+      </c>
+      <c r="I116" s="2">
         <v>4</v>
       </c>
-      <c r="I116" s="2">
-        <v>3</v>
-      </c>
       <c r="J116" s="2">
         <v>3</v>
       </c>
       <c r="K116" s="2">
+        <v>3</v>
+      </c>
+      <c r="L116" s="2">
         <v>212</v>
       </c>
-      <c r="L116" s="2">
+      <c r="M116" s="2">
         <v>57.1</v>
       </c>
-      <c r="M116" s="2">
+      <c r="N116" s="2">
         <v>70.2</v>
       </c>
-      <c r="N116" s="2">
+      <c r="O116" s="2">
         <v>10.3</v>
       </c>
-      <c r="O116" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="str">
+        <f>CONCATENATE(LEFT(A117,5),"_",RIGHT(A117,2))</f>
+        <v>FER68_68</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="2">
+      <c r="D117" s="2">
         <v>308</v>
       </c>
-      <c r="D117" s="2">
+      <c r="E117" s="2">
         <v>297</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="2">
         <v>352</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="2">
-        <v>3</v>
+      <c r="G117" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H117" s="2">
         <v>3</v>
@@ -6413,42 +6890,46 @@
         <v>3</v>
       </c>
       <c r="K117" s="2">
+        <v>3</v>
+      </c>
+      <c r="L117" s="2">
         <v>254</v>
       </c>
-      <c r="L117" s="2">
+      <c r="M117" s="2">
         <v>74.400000000000006</v>
       </c>
-      <c r="M117" s="2">
+      <c r="N117" s="2">
         <v>83.6</v>
       </c>
-      <c r="N117" s="2">
+      <c r="O117" s="2">
         <v>14.2</v>
       </c>
-      <c r="O117" s="4">
+      <c r="P117" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="str">
+        <f t="shared" ref="B118:B127" si="2">CONCATENATE(LEFT(A118,5),"_",RIGHT(A118,2))</f>
+        <v>FER69_69</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="2">
+      <c r="D118" s="2">
         <v>398</v>
       </c>
-      <c r="D118" s="2">
+      <c r="E118" s="2">
         <v>386</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118" s="2">
         <v>684</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G118" s="2">
-        <v>6</v>
       </c>
       <c r="H118" s="2">
         <v>6</v>
@@ -6460,43 +6941,47 @@
         <v>6</v>
       </c>
       <c r="K118" s="2">
+        <v>6</v>
+      </c>
+      <c r="L118" s="2">
         <v>331</v>
       </c>
-      <c r="L118" s="2">
+      <c r="M118" s="2">
         <v>87.6</v>
       </c>
-      <c r="M118" s="2">
+      <c r="N118" s="2">
         <v>102.1</v>
       </c>
-      <c r="N118" s="2">
+      <c r="O118" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="O118" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" t="str">
+        <f t="shared" si="2"/>
+        <v>FER70_70</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C119" s="2">
+      <c r="D119" s="2">
         <v>276</v>
       </c>
-      <c r="D119" s="2">
+      <c r="E119" s="2">
         <v>271</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119" s="2">
         <v>243</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="G119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G119" s="2">
-        <v>2</v>
-      </c>
       <c r="H119" s="2">
         <v>2</v>
       </c>
@@ -6507,43 +6992,47 @@
         <v>2</v>
       </c>
       <c r="K119" s="2">
+        <v>2</v>
+      </c>
+      <c r="L119" s="2">
         <v>230</v>
       </c>
-      <c r="L119" s="2">
+      <c r="M119" s="2">
         <v>60</v>
       </c>
-      <c r="M119" s="2">
+      <c r="N119" s="2">
         <v>75.400000000000006</v>
       </c>
-      <c r="N119" s="2">
-        <v>14</v>
-      </c>
-      <c r="O119" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O119" s="2">
+        <v>14</v>
+      </c>
+      <c r="P119" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" t="str">
+        <f t="shared" si="2"/>
+        <v>FER71_71</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="D120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="2">
         <v>224</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120" s="2">
         <v>161</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="G120" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G120" s="2">
-        <v>2</v>
-      </c>
       <c r="H120" s="2">
         <v>2</v>
       </c>
@@ -6554,27 +7043,31 @@
         <v>2</v>
       </c>
       <c r="K120" s="2">
+        <v>2</v>
+      </c>
+      <c r="L120" s="2">
         <v>194</v>
       </c>
-      <c r="L120" s="2">
+      <c r="M120" s="2">
         <v>54.8</v>
       </c>
-      <c r="M120" s="2">
+      <c r="N120" s="2">
         <v>63.7</v>
       </c>
-      <c r="N120" s="2">
+      <c r="O120" s="2">
         <v>10.3</v>
       </c>
-      <c r="O120" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>11</v>
+      <c r="B121" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_31</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>11</v>
@@ -6615,13 +7108,17 @@
       <c r="O121" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>11</v>
+      <c r="B122" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_32</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>11</v>
@@ -6662,13 +7159,17 @@
       <c r="O122" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>11</v>
+      <c r="B123" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_33</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>11</v>
@@ -6709,13 +7210,17 @@
       <c r="O123" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>11</v>
+      <c r="B124" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_34</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>11</v>
@@ -6756,13 +7261,17 @@
       <c r="O124" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>11</v>
+      <c r="B125" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_35</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>11</v>
@@ -6803,13 +7312,17 @@
       <c r="O125" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>11</v>
+      <c r="B126" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_36</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>11</v>
@@ -6850,13 +7363,17 @@
       <c r="O126" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>11</v>
+      <c r="B127" t="str">
+        <f t="shared" si="2"/>
+        <v>GRSPB_37</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>11</v>
@@ -6897,13 +7414,17 @@
       <c r="O127" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>11</v>
+      <c r="B128" t="str">
+        <f>CONCATENATE(LEFT(A128,5),"_",RIGHT(A128,2))</f>
+        <v>GRSPB_39</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>11</v>
@@ -6944,13 +7465,17 @@
       <c r="O128" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>11</v>
+      <c r="B129" t="str">
+        <f>CONCATENATE(LEFT(A129,4),"_",RIGHT(A129,2))</f>
+        <v>GRSP_41</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>11</v>
@@ -6991,13 +7516,17 @@
       <c r="O129" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>11</v>
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B136" si="3">CONCATENATE(LEFT(A130,4),"_",RIGHT(A130,2))</f>
+        <v>GRSP_44</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>11</v>
@@ -7038,13 +7567,17 @@
       <c r="O130" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>11</v>
+      <c r="B131" t="str">
+        <f t="shared" si="3"/>
+        <v>GRSP_46</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>11</v>
@@ -7085,13 +7618,17 @@
       <c r="O131" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>11</v>
+      <c r="B132" t="str">
+        <f t="shared" si="3"/>
+        <v>GRSP_49</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
@@ -7132,13 +7669,17 @@
       <c r="O132" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>11</v>
+      <c r="B133" t="str">
+        <f t="shared" si="3"/>
+        <v>TBLR_01</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -7179,13 +7720,17 @@
       <c r="O133" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>11</v>
+      <c r="B134" t="str">
+        <f t="shared" si="3"/>
+        <v>TBLR_02</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>11</v>
@@ -7226,13 +7771,17 @@
       <c r="O134" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>11</v>
+      <c r="B135" t="str">
+        <f t="shared" si="3"/>
+        <v>TBLR_03</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>11</v>
@@ -7273,13 +7822,17 @@
       <c r="O135" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>11</v>
+      <c r="B136" t="str">
+        <f t="shared" si="3"/>
+        <v>TBLR_04</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>11</v>
@@ -7320,14 +7873,14 @@
       <c r="O136" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C137" s="4" t="s">
         <v>11</v>
       </c>
@@ -7367,14 +7920,14 @@
       <c r="O137" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C138" s="4" t="s">
         <v>11</v>
       </c>
@@ -7414,14 +7967,14 @@
       <c r="O138" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C139" s="4" t="s">
         <v>11</v>
       </c>
@@ -7461,14 +8014,14 @@
       <c r="O139" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
@@ -7508,9 +8061,12 @@
       <c r="O140" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="P140" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O122">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P122">
     <sortCondition ref="A1:A122"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D512032-7027-8D4F-ACB3-EB580F007464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE69691C-05A7-5145-99D3-1C4A023447C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5700" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="301">
   <si>
     <t>sample_id</t>
   </si>
@@ -520,6 +520,423 @@
   </si>
   <si>
     <t>structure_number</t>
+  </si>
+  <si>
+    <t>FBS_01</t>
+  </si>
+  <si>
+    <t>FBS_02</t>
+  </si>
+  <si>
+    <t>FBS_03</t>
+  </si>
+  <si>
+    <t>FBS_04</t>
+  </si>
+  <si>
+    <t>FBS_05</t>
+  </si>
+  <si>
+    <t>FBS_06</t>
+  </si>
+  <si>
+    <t>FBS_07</t>
+  </si>
+  <si>
+    <t>FBS_08</t>
+  </si>
+  <si>
+    <t>FBS_09</t>
+  </si>
+  <si>
+    <t>FBS_10</t>
+  </si>
+  <si>
+    <t>FBS_11</t>
+  </si>
+  <si>
+    <t>FBS_12</t>
+  </si>
+  <si>
+    <t>FBS_13</t>
+  </si>
+  <si>
+    <t>FBS_14</t>
+  </si>
+  <si>
+    <t>FBS_15</t>
+  </si>
+  <si>
+    <t>FBS_16</t>
+  </si>
+  <si>
+    <t>FBS_17</t>
+  </si>
+  <si>
+    <t>FBS_18</t>
+  </si>
+  <si>
+    <t>FBS_19</t>
+  </si>
+  <si>
+    <t>FBS_20</t>
+  </si>
+  <si>
+    <t>FBS_21</t>
+  </si>
+  <si>
+    <t>FBS_22</t>
+  </si>
+  <si>
+    <t>FBS_23</t>
+  </si>
+  <si>
+    <t>FBS_24</t>
+  </si>
+  <si>
+    <t>FBS_25</t>
+  </si>
+  <si>
+    <t>FBS_26</t>
+  </si>
+  <si>
+    <t>FBS_27</t>
+  </si>
+  <si>
+    <t>FBS_28</t>
+  </si>
+  <si>
+    <t>FBS_29</t>
+  </si>
+  <si>
+    <t>FBS_30</t>
+  </si>
+  <si>
+    <t>FBS_31</t>
+  </si>
+  <si>
+    <t>FBS_32</t>
+  </si>
+  <si>
+    <t>FBS_33</t>
+  </si>
+  <si>
+    <t>FBS_34</t>
+  </si>
+  <si>
+    <t>FBS_35</t>
+  </si>
+  <si>
+    <t>FBS_36</t>
+  </si>
+  <si>
+    <t>FBS_37</t>
+  </si>
+  <si>
+    <t>FBS_38</t>
+  </si>
+  <si>
+    <t>FBS_39</t>
+  </si>
+  <si>
+    <t>FBS_41</t>
+  </si>
+  <si>
+    <t>FBS_42</t>
+  </si>
+  <si>
+    <t>FBS_43</t>
+  </si>
+  <si>
+    <t>FBS_44</t>
+  </si>
+  <si>
+    <t>FBS_45</t>
+  </si>
+  <si>
+    <t>FBS_46</t>
+  </si>
+  <si>
+    <t>FBS_47</t>
+  </si>
+  <si>
+    <t>FBS_48</t>
+  </si>
+  <si>
+    <t>FBS_49</t>
+  </si>
+  <si>
+    <t>FER_01</t>
+  </si>
+  <si>
+    <t>FER_02</t>
+  </si>
+  <si>
+    <t>FER_03</t>
+  </si>
+  <si>
+    <t>FER_04</t>
+  </si>
+  <si>
+    <t>FER_05</t>
+  </si>
+  <si>
+    <t>FER_06</t>
+  </si>
+  <si>
+    <t>FER_07</t>
+  </si>
+  <si>
+    <t>FER_08</t>
+  </si>
+  <si>
+    <t>FER_09</t>
+  </si>
+  <si>
+    <t>FER_10</t>
+  </si>
+  <si>
+    <t>FER_11</t>
+  </si>
+  <si>
+    <t>FER_12</t>
+  </si>
+  <si>
+    <t>FER_13</t>
+  </si>
+  <si>
+    <t>FER_14</t>
+  </si>
+  <si>
+    <t>FER_15</t>
+  </si>
+  <si>
+    <t>FER_16</t>
+  </si>
+  <si>
+    <t>FER_17</t>
+  </si>
+  <si>
+    <t>FER_18</t>
+  </si>
+  <si>
+    <t>FER_19</t>
+  </si>
+  <si>
+    <t>FER_20</t>
+  </si>
+  <si>
+    <t>FER_21</t>
+  </si>
+  <si>
+    <t>FER_22</t>
+  </si>
+  <si>
+    <t>FER_23</t>
+  </si>
+  <si>
+    <t>FER_24</t>
+  </si>
+  <si>
+    <t>FER_25</t>
+  </si>
+  <si>
+    <t>FER_26</t>
+  </si>
+  <si>
+    <t>FER_27</t>
+  </si>
+  <si>
+    <t>FER_28</t>
+  </si>
+  <si>
+    <t>FER_29</t>
+  </si>
+  <si>
+    <t>FER_30</t>
+  </si>
+  <si>
+    <t>FER_31</t>
+  </si>
+  <si>
+    <t>FER_32</t>
+  </si>
+  <si>
+    <t>FER_33</t>
+  </si>
+  <si>
+    <t>FER_34</t>
+  </si>
+  <si>
+    <t>FER_35</t>
+  </si>
+  <si>
+    <t>FER_36</t>
+  </si>
+  <si>
+    <t>FER_37</t>
+  </si>
+  <si>
+    <t>FER_38</t>
+  </si>
+  <si>
+    <t>FER_39</t>
+  </si>
+  <si>
+    <t>FER_40</t>
+  </si>
+  <si>
+    <t>FER_41</t>
+  </si>
+  <si>
+    <t>FER_42</t>
+  </si>
+  <si>
+    <t>FER_43</t>
+  </si>
+  <si>
+    <t>FER_44</t>
+  </si>
+  <si>
+    <t>FER_45</t>
+  </si>
+  <si>
+    <t>FER_46</t>
+  </si>
+  <si>
+    <t>FER_47</t>
+  </si>
+  <si>
+    <t>FER_48</t>
+  </si>
+  <si>
+    <t>FER_49</t>
+  </si>
+  <si>
+    <t>FER_50</t>
+  </si>
+  <si>
+    <t>FER_51</t>
+  </si>
+  <si>
+    <t>FER_52</t>
+  </si>
+  <si>
+    <t>FER_53</t>
+  </si>
+  <si>
+    <t>FER_54</t>
+  </si>
+  <si>
+    <t>FER_55</t>
+  </si>
+  <si>
+    <t>FER_56</t>
+  </si>
+  <si>
+    <t>FER_57</t>
+  </si>
+  <si>
+    <t>FER_58</t>
+  </si>
+  <si>
+    <t>FER_59</t>
+  </si>
+  <si>
+    <t>FER_60</t>
+  </si>
+  <si>
+    <t>FER_61</t>
+  </si>
+  <si>
+    <t>FER_62</t>
+  </si>
+  <si>
+    <t>FER_63</t>
+  </si>
+  <si>
+    <t>FER_64</t>
+  </si>
+  <si>
+    <t>FER_65</t>
+  </si>
+  <si>
+    <t>FER_66</t>
+  </si>
+  <si>
+    <t>GRSPB_31</t>
+  </si>
+  <si>
+    <t>GRSPB_32</t>
+  </si>
+  <si>
+    <t>GRSPB_33</t>
+  </si>
+  <si>
+    <t>GRSPB_34</t>
+  </si>
+  <si>
+    <t>GRSPB_35</t>
+  </si>
+  <si>
+    <t>GRSPB_36</t>
+  </si>
+  <si>
+    <t>GRSPB_37</t>
+  </si>
+  <si>
+    <t>GRSPB_39</t>
+  </si>
+  <si>
+    <t>TBLR_01</t>
+  </si>
+  <si>
+    <t>TBLR_02</t>
+  </si>
+  <si>
+    <t>TBLR_03</t>
+  </si>
+  <si>
+    <t>TBLR_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBS_40 </t>
+  </si>
+  <si>
+    <t>TBLR_05</t>
+  </si>
+  <si>
+    <t>TBLR_06</t>
+  </si>
+  <si>
+    <t>TBLR_07</t>
+  </si>
+  <si>
+    <t>TBLR_08</t>
+  </si>
+  <si>
+    <t>FER_68</t>
+  </si>
+  <si>
+    <t>FER_69</t>
+  </si>
+  <si>
+    <t>FER_70</t>
+  </si>
+  <si>
+    <t>FER_71</t>
+  </si>
+  <si>
+    <t>GRSPB_41</t>
+  </si>
+  <si>
+    <t>GRSPB_44</t>
+  </si>
+  <si>
+    <t>GRSPB_46</t>
+  </si>
+  <si>
+    <t>GRSPB_49</t>
   </si>
 </sst>
 </file>
@@ -929,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D9D8A-4BB1-B749-8FD6-F9946088D456}">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,9 +1413,8 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="str">
-        <f>CONCATENATE(LEFT(A2,3),"_",RIGHT(A2,2))</f>
-        <v>FBS_01</v>
+      <c r="B2" t="s">
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>139</v>
@@ -1047,9 +1463,8 @@
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">CONCATENATE(LEFT(A3,3),"_",RIGHT(A3,2))</f>
-        <v>FBS_02</v>
+      <c r="B3" t="s">
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>139</v>
@@ -1098,9 +1513,8 @@
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_03</v>
+      <c r="B4" t="s">
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>139</v>
@@ -1149,9 +1563,8 @@
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_04</v>
+      <c r="B5" t="s">
+        <v>165</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>138</v>
@@ -1200,9 +1613,8 @@
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_05</v>
+      <c r="B6" t="s">
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>138</v>
@@ -1251,9 +1663,8 @@
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_06</v>
+      <c r="B7" t="s">
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>139</v>
@@ -1302,9 +1713,8 @@
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_07</v>
+      <c r="B8" t="s">
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>138</v>
@@ -1353,9 +1763,8 @@
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_08</v>
+      <c r="B9" t="s">
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>138</v>
@@ -1404,9 +1813,8 @@
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_09</v>
+      <c r="B10" t="s">
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>139</v>
@@ -1455,9 +1863,8 @@
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_10</v>
+      <c r="B11" t="s">
+        <v>171</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>139</v>
@@ -1506,9 +1913,8 @@
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_11</v>
+      <c r="B12" t="s">
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>138</v>
@@ -1557,9 +1963,8 @@
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_12</v>
+      <c r="B13" t="s">
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>138</v>
@@ -1608,9 +2013,8 @@
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_13</v>
+      <c r="B14" t="s">
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>138</v>
@@ -1659,9 +2063,8 @@
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_14</v>
+      <c r="B15" t="s">
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>139</v>
@@ -1710,9 +2113,8 @@
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_15</v>
+      <c r="B16" t="s">
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>139</v>
@@ -1761,9 +2163,8 @@
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_16</v>
+      <c r="B17" t="s">
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>139</v>
@@ -1812,9 +2213,8 @@
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_17</v>
+      <c r="B18" t="s">
+        <v>178</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>139</v>
@@ -1863,9 +2263,8 @@
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_18</v>
+      <c r="B19" t="s">
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>139</v>
@@ -1914,9 +2313,8 @@
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_19</v>
+      <c r="B20" t="s">
+        <v>180</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>139</v>
@@ -1965,9 +2363,8 @@
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_20</v>
+      <c r="B21" t="s">
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>139</v>
@@ -2016,9 +2413,8 @@
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_21</v>
+      <c r="B22" t="s">
+        <v>182</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>138</v>
@@ -2067,9 +2463,8 @@
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_22</v>
+      <c r="B23" t="s">
+        <v>183</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>139</v>
@@ -2118,9 +2513,8 @@
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_23</v>
+      <c r="B24" t="s">
+        <v>184</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>139</v>
@@ -2169,9 +2563,8 @@
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_24</v>
+      <c r="B25" t="s">
+        <v>185</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>139</v>
@@ -2220,9 +2613,8 @@
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_25</v>
+      <c r="B26" t="s">
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>139</v>
@@ -2271,9 +2663,8 @@
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_26</v>
+      <c r="B27" t="s">
+        <v>187</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>138</v>
@@ -2322,9 +2713,8 @@
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_27</v>
+      <c r="B28" t="s">
+        <v>188</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>139</v>
@@ -2373,9 +2763,8 @@
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_28</v>
+      <c r="B29" t="s">
+        <v>189</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>139</v>
@@ -2424,9 +2813,8 @@
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_29</v>
+      <c r="B30" t="s">
+        <v>190</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>138</v>
@@ -2475,9 +2863,8 @@
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_30</v>
+      <c r="B31" t="s">
+        <v>191</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>139</v>
@@ -2526,9 +2913,8 @@
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_31</v>
+      <c r="B32" t="s">
+        <v>192</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>138</v>
@@ -2577,9 +2963,8 @@
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_32</v>
+      <c r="B33" t="s">
+        <v>193</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>138</v>
@@ -2628,9 +3013,8 @@
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_33</v>
+      <c r="B34" t="s">
+        <v>194</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>138</v>
@@ -2679,9 +3063,8 @@
       <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_34</v>
+      <c r="B35" t="s">
+        <v>195</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>138</v>
@@ -2730,9 +3113,8 @@
       <c r="A36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_35</v>
+      <c r="B36" t="s">
+        <v>196</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>139</v>
@@ -2781,9 +3163,8 @@
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_36</v>
+      <c r="B37" t="s">
+        <v>197</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>139</v>
@@ -2832,9 +3213,8 @@
       <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_37</v>
+      <c r="B38" t="s">
+        <v>198</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>138</v>
@@ -2883,9 +3263,8 @@
       <c r="A39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_38</v>
+      <c r="B39" t="s">
+        <v>199</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>139</v>
@@ -2934,9 +3313,8 @@
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_39</v>
+      <c r="B40" t="s">
+        <v>200</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>138</v>
@@ -2985,9 +3363,8 @@
       <c r="A41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">FBS_0 </v>
+      <c r="B41" t="s">
+        <v>288</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>139</v>
@@ -3036,9 +3413,8 @@
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_41</v>
+      <c r="B42" t="s">
+        <v>201</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>138</v>
@@ -3087,9 +3463,8 @@
       <c r="A43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_42</v>
+      <c r="B43" t="s">
+        <v>202</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>139</v>
@@ -3138,9 +3513,8 @@
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_43</v>
+      <c r="B44" t="s">
+        <v>203</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>138</v>
@@ -3189,9 +3563,8 @@
       <c r="A45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_44</v>
+      <c r="B45" t="s">
+        <v>204</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>139</v>
@@ -3240,9 +3613,8 @@
       <c r="A46" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_45</v>
+      <c r="B46" t="s">
+        <v>205</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>138</v>
@@ -3291,9 +3663,8 @@
       <c r="A47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_46</v>
+      <c r="B47" t="s">
+        <v>206</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>139</v>
@@ -3342,9 +3713,8 @@
       <c r="A48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_47</v>
+      <c r="B48" t="s">
+        <v>207</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>139</v>
@@ -3393,9 +3763,8 @@
       <c r="A49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_48</v>
+      <c r="B49" t="s">
+        <v>208</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>138</v>
@@ -3444,9 +3813,8 @@
       <c r="A50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>FBS_49</v>
+      <c r="B50" t="s">
+        <v>209</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>139</v>
@@ -3495,9 +3863,8 @@
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_01</v>
+      <c r="B51" t="s">
+        <v>210</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>139</v>
@@ -3546,9 +3913,8 @@
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_02</v>
+      <c r="B52" t="s">
+        <v>211</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>139</v>
@@ -3597,9 +3963,8 @@
       <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_03</v>
+      <c r="B53" t="s">
+        <v>212</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>139</v>
@@ -3648,9 +4013,8 @@
       <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_04</v>
+      <c r="B54" t="s">
+        <v>213</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>138</v>
@@ -3699,9 +4063,8 @@
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_05</v>
+      <c r="B55" t="s">
+        <v>214</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>138</v>
@@ -3750,9 +4113,8 @@
       <c r="A56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_06</v>
+      <c r="B56" t="s">
+        <v>215</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>138</v>
@@ -3801,9 +4163,8 @@
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_07</v>
+      <c r="B57" t="s">
+        <v>216</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>139</v>
@@ -3852,9 +4213,8 @@
       <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_08</v>
+      <c r="B58" t="s">
+        <v>217</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>138</v>
@@ -3903,9 +4263,8 @@
       <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_09</v>
+      <c r="B59" t="s">
+        <v>218</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>138</v>
@@ -3954,9 +4313,8 @@
       <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_10</v>
+      <c r="B60" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>138</v>
@@ -4005,9 +4363,8 @@
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_11</v>
+      <c r="B61" t="s">
+        <v>220</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>138</v>
@@ -4056,9 +4413,8 @@
       <c r="A62" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_12</v>
+      <c r="B62" t="s">
+        <v>221</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>139</v>
@@ -4107,9 +4463,8 @@
       <c r="A63" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_13</v>
+      <c r="B63" t="s">
+        <v>222</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>139</v>
@@ -4158,9 +4513,8 @@
       <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_14</v>
+      <c r="B64" t="s">
+        <v>223</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>139</v>
@@ -4209,9 +4563,8 @@
       <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_15</v>
+      <c r="B65" t="s">
+        <v>224</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>138</v>
@@ -4260,9 +4613,8 @@
       <c r="A66" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>FER_16</v>
+      <c r="B66" t="s">
+        <v>225</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>138</v>
@@ -4311,9 +4663,8 @@
       <c r="A67" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B67" t="str">
-        <f t="shared" ref="B67:B116" si="1">CONCATENATE(LEFT(A67,3),"_",RIGHT(A67,2))</f>
-        <v>FER_17</v>
+      <c r="B67" t="s">
+        <v>226</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>139</v>
@@ -4362,9 +4713,8 @@
       <c r="A68" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_18</v>
+      <c r="B68" t="s">
+        <v>227</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>138</v>
@@ -4413,9 +4763,8 @@
       <c r="A69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_19</v>
+      <c r="B69" t="s">
+        <v>228</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>139</v>
@@ -4464,9 +4813,8 @@
       <c r="A70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_20</v>
+      <c r="B70" t="s">
+        <v>229</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>139</v>
@@ -4515,9 +4863,8 @@
       <c r="A71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_21</v>
+      <c r="B71" t="s">
+        <v>230</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>138</v>
@@ -4566,9 +4913,8 @@
       <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_22</v>
+      <c r="B72" t="s">
+        <v>231</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>138</v>
@@ -4617,9 +4963,8 @@
       <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_23</v>
+      <c r="B73" t="s">
+        <v>232</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>139</v>
@@ -4668,9 +5013,8 @@
       <c r="A74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_24</v>
+      <c r="B74" t="s">
+        <v>233</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>138</v>
@@ -4719,9 +5063,8 @@
       <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_25</v>
+      <c r="B75" t="s">
+        <v>234</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>139</v>
@@ -4770,9 +5113,8 @@
       <c r="A76" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_26</v>
+      <c r="B76" t="s">
+        <v>235</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>139</v>
@@ -4821,9 +5163,8 @@
       <c r="A77" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_27</v>
+      <c r="B77" t="s">
+        <v>236</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>139</v>
@@ -4872,9 +5213,8 @@
       <c r="A78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_28</v>
+      <c r="B78" t="s">
+        <v>237</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>139</v>
@@ -4923,9 +5263,8 @@
       <c r="A79" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B79" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_29</v>
+      <c r="B79" t="s">
+        <v>238</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>138</v>
@@ -4974,9 +5313,8 @@
       <c r="A80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B80" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_30</v>
+      <c r="B80" t="s">
+        <v>239</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>138</v>
@@ -5025,9 +5363,8 @@
       <c r="A81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B81" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_31</v>
+      <c r="B81" t="s">
+        <v>240</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>139</v>
@@ -5076,9 +5413,8 @@
       <c r="A82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B82" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_32</v>
+      <c r="B82" t="s">
+        <v>241</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>139</v>
@@ -5127,9 +5463,8 @@
       <c r="A83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B83" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_33</v>
+      <c r="B83" t="s">
+        <v>242</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>138</v>
@@ -5178,9 +5513,8 @@
       <c r="A84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B84" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_34</v>
+      <c r="B84" t="s">
+        <v>243</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>139</v>
@@ -5229,9 +5563,8 @@
       <c r="A85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B85" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_35</v>
+      <c r="B85" t="s">
+        <v>244</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>139</v>
@@ -5280,9 +5613,8 @@
       <c r="A86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B86" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_36</v>
+      <c r="B86" t="s">
+        <v>245</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>139</v>
@@ -5331,9 +5663,8 @@
       <c r="A87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B87" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_37</v>
+      <c r="B87" t="s">
+        <v>246</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>139</v>
@@ -5382,9 +5713,8 @@
       <c r="A88" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B88" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_38</v>
+      <c r="B88" t="s">
+        <v>247</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>138</v>
@@ -5433,9 +5763,8 @@
       <c r="A89" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B89" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_39</v>
+      <c r="B89" t="s">
+        <v>248</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>138</v>
@@ -5484,9 +5813,8 @@
       <c r="A90" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B90" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_40</v>
+      <c r="B90" t="s">
+        <v>249</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>139</v>
@@ -5535,9 +5863,8 @@
       <c r="A91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B91" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_41</v>
+      <c r="B91" t="s">
+        <v>250</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>139</v>
@@ -5586,9 +5913,8 @@
       <c r="A92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B92" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_42</v>
+      <c r="B92" t="s">
+        <v>251</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>139</v>
@@ -5637,9 +5963,8 @@
       <c r="A93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B93" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_43</v>
+      <c r="B93" t="s">
+        <v>252</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>138</v>
@@ -5688,9 +6013,8 @@
       <c r="A94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B94" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_44</v>
+      <c r="B94" t="s">
+        <v>253</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>138</v>
@@ -5739,9 +6063,8 @@
       <c r="A95" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B95" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_45</v>
+      <c r="B95" t="s">
+        <v>254</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>139</v>
@@ -5790,9 +6113,8 @@
       <c r="A96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B96" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_46</v>
+      <c r="B96" t="s">
+        <v>255</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>138</v>
@@ -5841,9 +6163,8 @@
       <c r="A97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B97" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_47</v>
+      <c r="B97" t="s">
+        <v>256</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>138</v>
@@ -5892,9 +6213,8 @@
       <c r="A98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B98" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_48</v>
+      <c r="B98" t="s">
+        <v>257</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>138</v>
@@ -5943,9 +6263,8 @@
       <c r="A99" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_49</v>
+      <c r="B99" t="s">
+        <v>258</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>138</v>
@@ -5994,9 +6313,8 @@
       <c r="A100" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B100" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_50</v>
+      <c r="B100" t="s">
+        <v>259</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>138</v>
@@ -6045,9 +6363,8 @@
       <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B101" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_51</v>
+      <c r="B101" t="s">
+        <v>260</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>139</v>
@@ -6096,9 +6413,8 @@
       <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B102" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_52</v>
+      <c r="B102" t="s">
+        <v>261</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>138</v>
@@ -6147,9 +6463,8 @@
       <c r="A103" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B103" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_53</v>
+      <c r="B103" t="s">
+        <v>262</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>138</v>
@@ -6198,9 +6513,8 @@
       <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B104" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_54</v>
+      <c r="B104" t="s">
+        <v>263</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>138</v>
@@ -6249,9 +6563,8 @@
       <c r="A105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B105" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_55</v>
+      <c r="B105" t="s">
+        <v>264</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>138</v>
@@ -6300,9 +6613,8 @@
       <c r="A106" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B106" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_56</v>
+      <c r="B106" t="s">
+        <v>265</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>139</v>
@@ -6351,9 +6663,8 @@
       <c r="A107" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B107" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_57</v>
+      <c r="B107" t="s">
+        <v>266</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>138</v>
@@ -6402,9 +6713,8 @@
       <c r="A108" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B108" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_58</v>
+      <c r="B108" t="s">
+        <v>267</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>138</v>
@@ -6453,9 +6763,8 @@
       <c r="A109" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B109" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_59</v>
+      <c r="B109" t="s">
+        <v>268</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>138</v>
@@ -6504,9 +6813,8 @@
       <c r="A110" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B110" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_60</v>
+      <c r="B110" t="s">
+        <v>269</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>139</v>
@@ -6555,9 +6863,8 @@
       <c r="A111" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B111" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_61</v>
+      <c r="B111" t="s">
+        <v>270</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>138</v>
@@ -6606,9 +6913,8 @@
       <c r="A112" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B112" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_62</v>
+      <c r="B112" t="s">
+        <v>271</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>138</v>
@@ -6657,9 +6963,8 @@
       <c r="A113" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B113" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_63</v>
+      <c r="B113" t="s">
+        <v>272</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>139</v>
@@ -6708,9 +7013,8 @@
       <c r="A114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B114" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_64</v>
+      <c r="B114" t="s">
+        <v>273</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>138</v>
@@ -6759,9 +7063,8 @@
       <c r="A115" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B115" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_65</v>
+      <c r="B115" t="s">
+        <v>274</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>138</v>
@@ -6810,9 +7113,8 @@
       <c r="A116" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B116" t="str">
-        <f t="shared" si="1"/>
-        <v>FER_66</v>
+      <c r="B116" t="s">
+        <v>275</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>139</v>
@@ -6861,9 +7163,8 @@
       <c r="A117" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B117" t="str">
-        <f>CONCATENATE(LEFT(A117,5),"_",RIGHT(A117,2))</f>
-        <v>FER68_68</v>
+      <c r="B117" t="s">
+        <v>293</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>138</v>
@@ -6912,9 +7213,8 @@
       <c r="A118" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B118" t="str">
-        <f t="shared" ref="B118:B127" si="2">CONCATENATE(LEFT(A118,5),"_",RIGHT(A118,2))</f>
-        <v>FER69_69</v>
+      <c r="B118" t="s">
+        <v>294</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>139</v>
@@ -6963,9 +7263,8 @@
       <c r="A119" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B119" t="str">
-        <f t="shared" si="2"/>
-        <v>FER70_70</v>
+      <c r="B119" t="s">
+        <v>295</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>139</v>
@@ -7014,9 +7313,8 @@
       <c r="A120" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B120" t="str">
-        <f t="shared" si="2"/>
-        <v>FER71_71</v>
+      <c r="B120" t="s">
+        <v>296</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>138</v>
@@ -7065,9 +7363,8 @@
       <c r="A121" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B121" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_31</v>
+      <c r="B121" t="s">
+        <v>276</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>11</v>
@@ -7116,9 +7413,8 @@
       <c r="A122" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B122" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_32</v>
+      <c r="B122" t="s">
+        <v>277</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>11</v>
@@ -7167,9 +7463,8 @@
       <c r="A123" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B123" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_33</v>
+      <c r="B123" t="s">
+        <v>278</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>11</v>
@@ -7218,9 +7513,8 @@
       <c r="A124" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B124" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_34</v>
+      <c r="B124" t="s">
+        <v>279</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>11</v>
@@ -7269,9 +7563,8 @@
       <c r="A125" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B125" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_35</v>
+      <c r="B125" t="s">
+        <v>280</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>11</v>
@@ -7320,9 +7613,8 @@
       <c r="A126" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B126" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_36</v>
+      <c r="B126" t="s">
+        <v>281</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>11</v>
@@ -7371,9 +7663,8 @@
       <c r="A127" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B127" t="str">
-        <f t="shared" si="2"/>
-        <v>GRSPB_37</v>
+      <c r="B127" t="s">
+        <v>282</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>11</v>
@@ -7422,9 +7713,8 @@
       <c r="A128" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B128" t="str">
-        <f>CONCATENATE(LEFT(A128,5),"_",RIGHT(A128,2))</f>
-        <v>GRSPB_39</v>
+      <c r="B128" t="s">
+        <v>283</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>11</v>
@@ -7473,9 +7763,8 @@
       <c r="A129" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B129" t="str">
-        <f>CONCATENATE(LEFT(A129,4),"_",RIGHT(A129,2))</f>
-        <v>GRSP_41</v>
+      <c r="B129" t="s">
+        <v>297</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>11</v>
@@ -7524,9 +7813,8 @@
       <c r="A130" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B130" t="str">
-        <f t="shared" ref="B130:B136" si="3">CONCATENATE(LEFT(A130,4),"_",RIGHT(A130,2))</f>
-        <v>GRSP_44</v>
+      <c r="B130" t="s">
+        <v>298</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>11</v>
@@ -7575,9 +7863,8 @@
       <c r="A131" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B131" t="str">
-        <f t="shared" si="3"/>
-        <v>GRSP_46</v>
+      <c r="B131" t="s">
+        <v>299</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>11</v>
@@ -7626,9 +7913,8 @@
       <c r="A132" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B132" t="str">
-        <f t="shared" si="3"/>
-        <v>GRSP_49</v>
+      <c r="B132" t="s">
+        <v>300</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
@@ -7677,9 +7963,8 @@
       <c r="A133" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B133" t="str">
-        <f t="shared" si="3"/>
-        <v>TBLR_01</v>
+      <c r="B133" t="s">
+        <v>284</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -7728,9 +8013,8 @@
       <c r="A134" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B134" t="str">
-        <f t="shared" si="3"/>
-        <v>TBLR_02</v>
+      <c r="B134" t="s">
+        <v>285</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>11</v>
@@ -7779,9 +8063,8 @@
       <c r="A135" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B135" t="str">
-        <f t="shared" si="3"/>
-        <v>TBLR_03</v>
+      <c r="B135" t="s">
+        <v>286</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>11</v>
@@ -7830,9 +8113,8 @@
       <c r="A136" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B136" t="str">
-        <f t="shared" si="3"/>
-        <v>TBLR_04</v>
+      <c r="B136" t="s">
+        <v>287</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>11</v>
@@ -7881,6 +8163,9 @@
       <c r="A137" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="B137" t="s">
+        <v>289</v>
+      </c>
       <c r="C137" s="4" t="s">
         <v>11</v>
       </c>
@@ -7928,6 +8213,9 @@
       <c r="A138" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="B138" t="s">
+        <v>290</v>
+      </c>
       <c r="C138" s="4" t="s">
         <v>11</v>
       </c>
@@ -7975,6 +8263,9 @@
       <c r="A139" s="7" t="s">
         <v>159</v>
       </c>
+      <c r="B139" t="s">
+        <v>291</v>
+      </c>
       <c r="C139" s="4" t="s">
         <v>11</v>
       </c>
@@ -8021,6 +8312,9 @@
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>160</v>
+      </c>
+      <c r="B140" t="s">
+        <v>292</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>11</v>

--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE69691C-05A7-5145-99D3-1C4A023447C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C884DE0-5455-234F-82FF-E394DCF3AD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,57 +864,9 @@
     <t>FER_66</t>
   </si>
   <si>
-    <t>GRSPB_31</t>
-  </si>
-  <si>
-    <t>GRSPB_32</t>
-  </si>
-  <si>
-    <t>GRSPB_33</t>
-  </si>
-  <si>
-    <t>GRSPB_34</t>
-  </si>
-  <si>
-    <t>GRSPB_35</t>
-  </si>
-  <si>
-    <t>GRSPB_36</t>
-  </si>
-  <si>
-    <t>GRSPB_37</t>
-  </si>
-  <si>
-    <t>GRSPB_39</t>
-  </si>
-  <si>
-    <t>TBLR_01</t>
-  </si>
-  <si>
-    <t>TBLR_02</t>
-  </si>
-  <si>
-    <t>TBLR_03</t>
-  </si>
-  <si>
-    <t>TBLR_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">FBS_40 </t>
   </si>
   <si>
-    <t>TBLR_05</t>
-  </si>
-  <si>
-    <t>TBLR_06</t>
-  </si>
-  <si>
-    <t>TBLR_07</t>
-  </si>
-  <si>
-    <t>TBLR_08</t>
-  </si>
-  <si>
     <t>FER_68</t>
   </si>
   <si>
@@ -927,16 +879,64 @@
     <t>FER_71</t>
   </si>
   <si>
-    <t>GRSPB_41</t>
-  </si>
-  <si>
-    <t>GRSPB_44</t>
-  </si>
-  <si>
-    <t>GRSPB_46</t>
-  </si>
-  <si>
-    <t>GRSPB_49</t>
+    <t>REF_01</t>
+  </si>
+  <si>
+    <t>REF_02</t>
+  </si>
+  <si>
+    <t>REF_03</t>
+  </si>
+  <si>
+    <t>REF_04</t>
+  </si>
+  <si>
+    <t>REF_05</t>
+  </si>
+  <si>
+    <t>REF_06</t>
+  </si>
+  <si>
+    <t>REF_07</t>
+  </si>
+  <si>
+    <t>REF_08</t>
+  </si>
+  <si>
+    <t>REF_09</t>
+  </si>
+  <si>
+    <t>REF_10</t>
+  </si>
+  <si>
+    <t>REF_11</t>
+  </si>
+  <si>
+    <t>REF_12</t>
+  </si>
+  <si>
+    <t>REF_13</t>
+  </si>
+  <si>
+    <t>REF_14</t>
+  </si>
+  <si>
+    <t>REF_15</t>
+  </si>
+  <si>
+    <t>REF_16</t>
+  </si>
+  <si>
+    <t>REF_17</t>
+  </si>
+  <si>
+    <t>REF_18</t>
+  </si>
+  <si>
+    <t>REF_19</t>
+  </si>
+  <si>
+    <t>REF_20</t>
   </si>
 </sst>
 </file>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D9D8A-4BB1-B749-8FD6-F9946088D456}">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3364,7 +3364,7 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>139</v>
@@ -7164,7 +7164,7 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>138</v>
@@ -7214,7 +7214,7 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>139</v>
@@ -7264,7 +7264,7 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>139</v>
@@ -7314,7 +7314,7 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>138</v>
@@ -7364,7 +7364,7 @@
         <v>141</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>11</v>
@@ -7414,7 +7414,7 @@
         <v>142</v>
       </c>
       <c r="B122" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>11</v>
@@ -7464,7 +7464,7 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>11</v>
@@ -7514,7 +7514,7 @@
         <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>11</v>
@@ -7564,7 +7564,7 @@
         <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>11</v>
@@ -7614,7 +7614,7 @@
         <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>11</v>
@@ -7664,7 +7664,7 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>11</v>
@@ -7714,7 +7714,7 @@
         <v>148</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>11</v>
@@ -7764,7 +7764,7 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>11</v>
@@ -7814,7 +7814,7 @@
         <v>150</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>11</v>
@@ -7864,7 +7864,7 @@
         <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>11</v>
@@ -7914,7 +7914,7 @@
         <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
@@ -7964,7 +7964,7 @@
         <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -8014,7 +8014,7 @@
         <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>11</v>
@@ -8064,7 +8064,7 @@
         <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>11</v>
@@ -8114,7 +8114,7 @@
         <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>11</v>
@@ -8164,7 +8164,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>11</v>
@@ -8214,7 +8214,7 @@
         <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>11</v>
@@ -8264,7 +8264,7 @@
         <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>11</v>
@@ -8314,7 +8314,7 @@
         <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>11</v>

--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C884DE0-5455-234F-82FF-E394DCF3AD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEED05-F0E8-404C-82A4-3C8C7EF139A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="19300" yWindow="500" windowWidth="10000" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1346,8 +1346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D9D8A-4BB1-B749-8FD6-F9946088D456}">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:B140"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/raw_data/phenotype_data.xlsx
+++ b/raw_data/phenotype_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joegunn/Desktop/Projects/SMB_Fitness/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEED05-F0E8-404C-82A4-3C8C7EF139A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EC7593-F984-B749-979F-7A6055FEDDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="500" windowWidth="10000" windowHeight="16480" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
+    <workbookView xWindow="-34320" yWindow="500" windowWidth="28800" windowHeight="20740" xr2:uid="{95A0B606-8E82-AB4B-B901-46781282E7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1346,9 +1346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28D9D8A-4BB1-B749-8FD6-F9946088D456}">
   <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4771,10 +4771,10 @@
         <v>139</v>
       </c>
       <c r="D69" s="2">
+        <v>218</v>
+      </c>
+      <c r="E69" s="2">
         <v>202</v>
-      </c>
-      <c r="E69" s="2">
-        <v>218</v>
       </c>
       <c r="F69" s="2">
         <v>120</v>
